--- a/media/docx_org_templates/mikrokredit/269-QOSIMOV_BEKZODBEK_ORIFJONOVICH-269.xlsx
+++ b/media/docx_org_templates/mikrokredit/269-QOSIMOV_BEKZODBEK_ORIFJONOVICH-269.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\payup\media\doc_templates\mikrokredit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\payup\media\docx_org_templates\mikrokredit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC6C10E-685B-4058-9222-88E34DDB5E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB12F247-DEB9-436C-ABC6-DA92F2B61B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Протокол  (2)" sheetId="23" r:id="rId1"/>
@@ -2999,41 +2999,68 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3050,33 +3077,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3086,6 +3086,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3101,33 +3125,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3137,11 +3143,17 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3179,33 +3191,21 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3216,40 +3216,40 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3260,12 +3260,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3275,39 +3299,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3335,38 +3350,26 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="1"/>
@@ -3394,9 +3397,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="141">
@@ -3993,24 +3993,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A1" s="238" t="str">
+      <c r="A1" s="245" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"mikromoliya tashkilotiKredit qo‘mitasining yig‘ilishi"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJmikromoliya tashkilotiKredit qo‘mitasining yig‘ilishi</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
     </row>
     <row r="2" spans="1:33" ht="29.25" customHeight="1">
-      <c r="A2" s="238" t="str">
+      <c r="A2" s="245" t="str">
         <f>""&amp;H7&amp;" protokolidan ko'chirma"</f>
         <v>№269-NS protokolidan ko'chirma</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
     </row>
     <row r="3" spans="1:33" ht="29.25" customHeight="1">
       <c r="A3" s="160" t="s">
@@ -4026,32 +4026,32 @@
     </row>
     <row r="4" spans="1:33" ht="29.25" customHeight="1">
       <c r="A4" s="59"/>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="245" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
       <c r="E4" s="59"/>
     </row>
     <row r="5" spans="1:33" ht="36" customHeight="1">
-      <c r="A5" s="237" t="str">
+      <c r="A5" s="243" t="str">
         <f>"         "&amp;H8&amp;"."&amp;'Общие данные'!B5&amp;" ga "&amp;'Общие данные'!B65&amp;" berish masalasini ko‘rib chiqish to‘g‘risida."</f>
         <v xml:space="preserve">         1.QOSIMOV BEKZODBEK ORIFJONOVICH ga mikrokredit berish masalasini ko‘rib chiqish to‘g‘risida.</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1">
-      <c r="A7" s="239" t="str">
+      <c r="A7" s="236" t="str">
         <f>"      "&amp;H9&amp;" masala yuzasidan: «Clever Mikromoliya Tashkiloti» MChJ mikromoliya tashkiloti kredit bo‘yicha menejeri  "&amp;'Общие данные'!B5&amp;"ga "&amp;FIXED('Общие данные'!B75)&amp;" ("&amp;'Общие данные'!B76&amp;") so‘m miqdorida, muddati "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oyga va yillik 60 (Oltmish) foiz miqdorida "&amp;'Общие данные'!B65&amp;" berich bo‘yicha "&amp;'Общие данные'!B5&amp;"ning kredit arizasi va "&amp;'Общие данные'!B147&amp;"ning xulosasi bilan ishtirokchilarni tanishtirdi."</f>
         <v xml:space="preserve">      Birinchi masala yuzasidan: «Clever Mikromoliya Tashkiloti» MChJ mikromoliya tashkiloti kredit bo‘yicha menejeri  QOSIMOV BEKZODBEK ORIFJONOVICHga 180 000 000,00 (yuz sakson million so'm) so‘m miqdorida, muddati 12 (o'n ikki) oyga va yillik 60 (Oltmish) foiz miqdorida mikrokredit berich bo‘yicha QOSIMOV BEKZODBEK ORIFJONOVICHning kredit arizasi va «CLEVER MIKROMOLIYA TASHKILOTI» MChJning xulosasi bilan ishtirokchilarni tanishtirdi.</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
       <c r="G7" s="76" t="s">
         <v>278</v>
       </c>
@@ -4061,11 +4061,11 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="23.25">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
+      <c r="A8" s="236"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
       <c r="G8" s="76" t="s">
         <v>279</v>
       </c>
@@ -4149,11 +4149,11 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A9" s="239"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
+      <c r="A9" s="236"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
       <c r="G9" s="76" t="s">
         <v>280</v>
       </c>
@@ -4238,47 +4238,47 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="10.5" hidden="1" customHeight="1">
-      <c r="A10" s="239"/>
-      <c r="B10" s="239"/>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
     </row>
     <row r="11" spans="1:33" ht="9" hidden="1" customHeight="1">
-      <c r="A11" s="239"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
+      <c r="A11" s="236"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
     </row>
     <row r="12" spans="1:33" ht="3" customHeight="1">
-      <c r="A12" s="239"/>
-      <c r="B12" s="239"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
     </row>
     <row r="13" spans="1:33" ht="7.5" customHeight="1"/>
     <row r="14" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A14" s="240" t="str">
+      <c r="A14" s="246" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" ta’minoti:"</f>
         <v>Mikrokredit ta’minoti:</v>
       </c>
-      <c r="B14" s="240"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="240"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
     </row>
     <row r="15" spans="1:33" ht="7.5" customHeight="1"/>
     <row r="16" spans="1:33" ht="64.5" customHeight="1">
-      <c r="A16" s="239" t="str">
+      <c r="A16" s="236" t="str">
         <f>'Заключение КК'!A18:E18</f>
         <v xml:space="preserve">  Egalik huquqi QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   MALIBU 2, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, davlat raqam belgisi 60Q081BB, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" customHeight="1">
       <c r="C17" s="189" t="s">
@@ -4294,93 +4294,93 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1">
-      <c r="A18" s="239" t="str">
+      <c r="A18" s="236" t="str">
         <f>CONCATENATE(H9,E17)</f>
         <v>Birinchi masala yuzasidan berilgan ma’lumotlarni muhokama qilib, Kredit qo‘mitasi a’zolariga taqdim etilgan zarur hujjatlarni o‘rganib, majlisda ishtirok etgan Kredit qo‘mitasi a’zolarining taklif va mulohazalarini inobatga olgan holda «CLEVER MIKROMOLIYA TASHKILOTI» MChJ kredit qo‘mitasi</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1">
-      <c r="A19" s="241" t="s">
+      <c r="A19" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="241"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="247"/>
     </row>
     <row r="20" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A20" s="239" t="str">
+      <c r="A20" s="236" t="str">
         <f>"       "&amp;'Общие данные'!B5&amp;"ga quyidagi shartlarda "&amp;'Общие данные'!B65&amp;" berish masalasi ma’qullansin:"</f>
         <v xml:space="preserve">       QOSIMOV BEKZODBEK ORIFJONOVICHga quyidagi shartlarda mikrokredit berish masalasi ma’qullansin:</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="239"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
     </row>
     <row r="21" spans="1:5" s="162" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="237" t="str">
+      <c r="A21" s="243" t="str">
         <f>"1. "&amp;'Общие данные'!C64&amp;" summasi: "&amp;FIXED('Общие данные'!B75)&amp;" ("&amp;'Общие данные'!B76&amp;") so'm."</f>
         <v>1. Mikrokredit summasi: 180 000 000,00 (yuz sakson million so'm) so'm.</v>
       </c>
-      <c r="B21" s="237"/>
-      <c r="C21" s="237"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="237"/>
+      <c r="B21" s="243"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
     </row>
     <row r="22" spans="1:5" s="162" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="237" t="str">
+      <c r="A22" s="243" t="str">
         <f>"2. "&amp;'Общие данные'!C64&amp;" muddati: "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oy "</f>
         <v xml:space="preserve">2. Mikrokredit muddati: 12 (o'n ikki) oy </v>
       </c>
-      <c r="B22" s="237"/>
-      <c r="C22" s="237"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="237"/>
+      <c r="B22" s="243"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
     </row>
     <row r="23" spans="1:5" s="162" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="237" t="str">
+      <c r="A23" s="243" t="str">
         <f>"3. "&amp;'Общие данные'!C64&amp;"dan foydalanganlik uchun foiz stavkasi:yillik "&amp;'Общие данные'!B85&amp;"% ("&amp;'Общие данные'!B86&amp;") foiz."</f>
         <v>3. Mikrokreditdan foydalanganlik uchun foiz stavkasi:yillik 60% (Oltmish) foiz.</v>
       </c>
-      <c r="B23" s="237"/>
-      <c r="C23" s="237"/>
-      <c r="D23" s="237"/>
-      <c r="E23" s="237"/>
+      <c r="B23" s="243"/>
+      <c r="C23" s="243"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243"/>
     </row>
     <row r="24" spans="1:5" s="162" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="237" t="str">
+      <c r="A24" s="243" t="str">
         <f>"4. "&amp;'Общие данные'!C64&amp;" bo‘yicha asosiy qarz va foizlarni to‘lash:"</f>
         <v>4. Mikrokredit bo‘yicha asosiy qarz va foizlarni to‘lash:</v>
       </c>
-      <c r="B24" s="237"/>
-      <c r="C24" s="237"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="237"/>
+      <c r="B24" s="243"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="243"/>
     </row>
     <row r="25" spans="1:5" s="162" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="237" t="str">
+      <c r="A25" s="243" t="str">
         <f>'Кредитная заявка'!A19:D19</f>
         <v xml:space="preserve"> - mikrokredit shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B25" s="237"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="237"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="243"/>
     </row>
     <row r="26" spans="1:5" ht="48" customHeight="1">
-      <c r="A26" s="239" t="str">
+      <c r="A26" s="236" t="str">
         <f>"5. "&amp;'Общие данные'!C64&amp;" bo‘yicha garov  "&amp;'Заключение КК'!A29:E29&amp;""</f>
         <v>5. Mikrokredit bo‘yicha garov   - QOSIMOV BEKZODBEK ORIFJONOVICH ga mulk huquqi asosida tegishli avtotransport vositasi MALIBU 2 , quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="239"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="236"/>
     </row>
     <row r="27" spans="1:5" ht="40.5" customHeight="1">
       <c r="A27" s="20" t="str">
@@ -4427,44 +4427,44 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A29" s="239" t="str">
+      <c r="A29" s="236" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A30" s="239" t="str">
+      <c r="A30" s="236" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="239"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="236"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A31" s="239" t="str">
+      <c r="A31" s="236" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
+      <c r="B31" s="236"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236"/>
     </row>
     <row r="32" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A32" s="239" t="str">
+      <c r="A32" s="236" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
+      <c r="B32" s="236"/>
+      <c r="C32" s="236"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="236"/>
     </row>
     <row r="33" spans="1:5" ht="51" hidden="1" customHeight="1">
       <c r="A33" s="42" t="str">
@@ -4505,7 +4505,7 @@
         <f>'Акт согласования'!D51</f>
         <v>37.39</v>
       </c>
-      <c r="E34" s="245" t="str">
+      <c r="E34" s="239" t="str">
         <f>""&amp;FIXED('Общие данные'!C136,2)&amp;" ("&amp;'Общие данные'!B137&amp;")"</f>
         <v>270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
@@ -4527,7 +4527,7 @@
         <f>'Акт согласования'!D52</f>
         <v>0</v>
       </c>
-      <c r="E35" s="246"/>
+      <c r="E35" s="240"/>
     </row>
     <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="42" t="str">
@@ -4546,7 +4546,7 @@
         <f>'Акт согласования'!D53</f>
         <v>34.74</v>
       </c>
-      <c r="E36" s="246"/>
+      <c r="E36" s="240"/>
     </row>
     <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="42">
@@ -4565,7 +4565,7 @@
         <f>'Акт согласования'!D54</f>
         <v>0</v>
       </c>
-      <c r="E37" s="246"/>
+      <c r="E37" s="240"/>
     </row>
     <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="42">
@@ -4584,7 +4584,7 @@
         <f>'Акт согласования'!D55</f>
         <v>0</v>
       </c>
-      <c r="E38" s="246"/>
+      <c r="E38" s="240"/>
     </row>
     <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="42">
@@ -4603,7 +4603,7 @@
         <f>'Акт согласования'!D56</f>
         <v>0</v>
       </c>
-      <c r="E39" s="246"/>
+      <c r="E39" s="240"/>
     </row>
     <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="42">
@@ -4622,7 +4622,7 @@
         <f>'Акт согласования'!D57</f>
         <v>0</v>
       </c>
-      <c r="E40" s="246"/>
+      <c r="E40" s="240"/>
     </row>
     <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="42">
@@ -4641,7 +4641,7 @@
         <f>'Акт согласования'!D58</f>
         <v>0</v>
       </c>
-      <c r="E41" s="246"/>
+      <c r="E41" s="240"/>
     </row>
     <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="42">
@@ -4660,7 +4660,7 @@
         <f>'Акт согласования'!D59</f>
         <v>0</v>
       </c>
-      <c r="E42" s="246"/>
+      <c r="E42" s="240"/>
     </row>
     <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="42">
@@ -4679,7 +4679,7 @@
         <f>'Акт согласования'!D60</f>
         <v>0</v>
       </c>
-      <c r="E43" s="246"/>
+      <c r="E43" s="240"/>
     </row>
     <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="42">
@@ -4698,7 +4698,7 @@
         <f>'Акт согласования'!D61</f>
         <v>0</v>
       </c>
-      <c r="E44" s="247"/>
+      <c r="E44" s="241"/>
     </row>
     <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="42" t="str">
@@ -4770,23 +4770,23 @@
       <c r="E50" s="163"/>
     </row>
     <row r="51" spans="1:5" ht="33" customHeight="1">
-      <c r="A51" s="239" t="str">
+      <c r="A51" s="236" t="str">
         <f>"6. Boshqa shartlar – "&amp;IF('Общие данные'!B103='Общие данные'!B104,"avtotransport vositasi",IF('Общие данные'!B103='Общие данные'!C104,"ko'chmas mulk",0))&amp;" shaklida garov ta'minlangandan keyin "&amp;'Общие данные'!B65&amp;" berish."</f>
         <v>6. Boshqa shartlar – 0 shaklida garov ta'minlangandan keyin mikrokredit berish.</v>
       </c>
-      <c r="B51" s="239"/>
-      <c r="C51" s="239"/>
-      <c r="D51" s="239"/>
-      <c r="E51" s="239"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
+      <c r="E51" s="236"/>
     </row>
     <row r="53" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A53" s="243" t="s">
+      <c r="A53" s="237" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="243"/>
-      <c r="C53" s="243"/>
-      <c r="D53" s="243"/>
-      <c r="E53" s="243"/>
+      <c r="B53" s="237"/>
+      <c r="C53" s="237"/>
+      <c r="D53" s="237"/>
+      <c r="E53" s="237"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" customHeight="1">
       <c r="A54" s="224" t="s">
@@ -4798,40 +4798,27 @@
       <c r="E54" s="205"/>
     </row>
     <row r="55" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A55" s="244" t="str">
+      <c r="A55" s="238" t="str">
         <f>"2. "&amp;'Общие данные'!B159&amp;""</f>
         <v>2. Mominov B.X.</v>
       </c>
-      <c r="B55" s="244"/>
+      <c r="B55" s="238"/>
       <c r="C55" s="204"/>
       <c r="D55" s="206"/>
       <c r="E55" s="206"/>
     </row>
     <row r="56" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A56" s="236" t="str">
+      <c r="A56" s="244" t="str">
         <f>"3. "&amp;'Общие данные'!B160&amp;""</f>
         <v>3.  Jumanazarov B.T</v>
       </c>
-      <c r="B56" s="236"/>
+      <c r="B56" s="244"/>
       <c r="C56" s="159"/>
       <c r="D56" s="207"/>
       <c r="E56" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="E34:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A1:E1"/>
@@ -4848,6 +4835,19 @@
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="E34:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A49:E49"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4876,285 +4876,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
-      <c r="A1" s="273" t="str">
+      <c r="A1" s="270" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"mikromoliya tashkilotining Xulosasi"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJmikromoliya tashkilotining Xulosasi</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="239"/>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="270" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="239" t="str">
+      <c r="A4" s="236" t="str">
         <f>"Mijozning to'liq ismi sharifi: "&amp;'Общие данные'!B5&amp;""</f>
         <v>Mijozning to'liq ismi sharifi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="239" t="str">
+      <c r="A5" s="236" t="str">
         <f>"Tug'ilgan sanasi: "&amp;'Общие данные'!B15&amp;""</f>
         <v>Tug'ilgan sanasi: 04.12.1981y</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1">
-      <c r="A6" s="239" t="str">
+      <c r="A6" s="236" t="str">
         <f>"Pasport seriyasi "&amp;'Общие данные'!B16&amp;" "&amp;'Общие данные'!B20&amp;", amal qilish muddati - "&amp;'Общие данные'!B21&amp;""</f>
         <v>Pasport seriyasi AB7685294 ANDIJON VILOYATI SHAXRIXON TUMANI IIB tomonidan 09.09.2017 yilda berilgan, amal qilish muddati - 08.09.2027 y.</v>
       </c>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1">
-      <c r="A7" s="239" t="str">
+      <c r="A7" s="236" t="str">
         <f>"Ro‘yxatdan o‘tgan manzili: "&amp;'Общие данные'!B28&amp;", mo'ljal: "&amp;'Общие данные'!B26&amp;""</f>
         <v>Ro‘yxatdan o‘tgan manzili: QORAQALPOGISTON RESPUBLIKASI  NUKUS SHAHARI OZBEKISTON GUZARI 71 4 UY, mo'ljal: ташкен гос ца нын касында домда иш жойи 108 оптом бетте</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A8" s="239" t="str">
+      <c r="A8" s="236" t="str">
         <f>"Ish joyi: "&amp;'Общие данные'!B52&amp;" lavozimi "&amp;'Общие данные'!B49&amp;"da "&amp;'Общие данные'!B44&amp;""</f>
         <v>Ish joyi:  lavozimi Avtomobillarni mayda ta'mirlash da O'Z O'ZINI BAND QILGAN FUQARO</v>
       </c>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="239"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
+      <c r="A9" s="236"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="273" t="str">
+      <c r="A10" s="270" t="str">
         <f>"Mijoz tomonidan so’ralgan "&amp;'Общие данные'!B65&amp;" shartlari:"</f>
         <v>Mijoz tomonidan so’ralgan mikrokredit shartlari:</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="239" t="str">
+      <c r="A11" s="236" t="str">
         <f>'Кредитная заявка'!A13:D13</f>
         <v>Mikrokredit summasi: 180 000 000,00 (yuz sakson million so'm) so'm.</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="239" t="str">
+      <c r="A12" s="236" t="str">
         <f>'Кредитная заявка'!A14:D14</f>
         <v>Mikrokredit muddati: 12 (o'n ikki) oy.</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="239" t="str">
+      <c r="A13" s="236" t="str">
         <f>'Кредитная заявка'!A15:D15</f>
         <v>Mikrokreditdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="239"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="239" t="str">
+      <c r="A14" s="236" t="str">
         <f>'Кредитная заявка'!A16:D16</f>
         <v>Mikrokredit bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A15" s="239" t="str">
+      <c r="A15" s="236" t="str">
         <f>'Кредитная заявка'!A19:D19</f>
         <v xml:space="preserve"> - mikrokredit shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A16" s="240" t="str">
+      <c r="A16" s="246" t="str">
         <f>'Кредитная заявка'!A20:D20</f>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="239" t="str">
+      <c r="A17" s="236" t="str">
         <f>'Кредитная заявка'!A21:D21</f>
         <v>Mikrokredit ta’minoti::</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
     </row>
     <row r="18" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A18" s="239" t="str">
+      <c r="A18" s="236" t="str">
         <f>'Кредитная заявка'!A22:D22</f>
         <v xml:space="preserve">  Egalik huquqi QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   MALIBU 2, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, davlat raqam belgisi 60Q081BB, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="273" t="s">
+      <c r="A19" s="270" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
     </row>
     <row r="20" spans="1:5" ht="33" customHeight="1">
-      <c r="A20" s="239" t="str">
+      <c r="A20" s="236" t="str">
         <f>"Anketaga muvofiq "&amp;'Общие данные'!B9&amp;"ning o‘rtacha oylik daromadi  "&amp;FIXED('Общие данные'!B60)&amp;" so‘mni tashkil etdi."</f>
         <v>Anketaga muvofiq QOSIMOV  B.O.ning o‘rtacha oylik daromadi  47 000 000,00 so‘mni tashkil etdi.</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="239"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1">
-      <c r="A21" s="239" t="str">
+      <c r="A21" s="236" t="str">
         <f>"Mijozning o'rtacha oylik xarajatlari "&amp;FIXED('Анкета Клиента'!F27)&amp;" so'mni tashkil etdi"</f>
         <v>Mijozning o'rtacha oylik xarajatlari 1 700 000,00 so'mni tashkil etdi</v>
       </c>
-      <c r="B21" s="239"/>
-      <c r="C21" s="239"/>
-      <c r="D21" s="239"/>
-      <c r="E21" s="239"/>
+      <c r="B21" s="236"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A22" s="239" t="str">
+      <c r="A22" s="236" t="str">
         <f>IF('Общие данные'!B77='Общие данные'!C77,'Заключение КК'!A23:E23,'Заключение КК'!A24:E24)</f>
         <v>Mikrokredit bo‘yicha oylik annuitet to‘lovi miqdori 20 309 000,00 so‘mni tashkil etadi.</v>
       </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="239"/>
+      <c r="B22" s="236"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
     </row>
     <row r="23" spans="1:5" ht="26.25" hidden="1" customHeight="1">
-      <c r="A23" s="239" t="str">
+      <c r="A23" s="236" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" shartnomasi bo'yicha birinchi oy uchun to'lov "&amp;FIXED('Общие данные'!B90)&amp;" so'mni tashkil etadi."</f>
         <v>Mikrokredit shartnomasi bo'yicha birinchi oy uchun to'lov 20 309 000,00 so'mni tashkil etadi.</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
     </row>
     <row r="24" spans="1:5" ht="26.25" hidden="1" customHeight="1">
-      <c r="A24" s="239" t="str">
+      <c r="A24" s="236" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" bo‘yicha oylik "&amp;'Общие данные'!B77&amp;" to‘lovi miqdori "&amp;FIXED('Общие данные'!B90)&amp;" so‘mni tashkil etadi."</f>
         <v>Mikrokredit bo‘yicha oylik annuitet to‘lovi miqdori 20 309 000,00 so‘mni tashkil etadi.</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="236"/>
     </row>
     <row r="25" spans="1:5" ht="67.5" hidden="1" customHeight="1">
-      <c r="A25" s="240" t="s">
+      <c r="A25" s="246" t="s">
         <v>421</v>
       </c>
-      <c r="B25" s="240"/>
-      <c r="C25" s="240"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="240"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A26" s="273" t="str">
+      <c r="A26" s="270" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" bo’yicha ta’minot:"</f>
         <v>Mikrokredit bo’yicha ta’minot:</v>
       </c>
-      <c r="B26" s="273"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="273"/>
+      <c r="B26" s="270"/>
+      <c r="C26" s="270"/>
+      <c r="D26" s="270"/>
+      <c r="E26" s="270"/>
     </row>
     <row r="27" spans="1:5" ht="31.5" hidden="1" customHeight="1">
-      <c r="A27" s="239" t="str">
+      <c r="A27" s="236" t="str">
         <f>" - "&amp;'Общие данные'!B117&amp;" ga mulk huquqi asosida tegishli avtotransport vositasi "&amp;'Общие данные'!B125&amp;" , quyidagi tafsilotlarga muvofiq:"</f>
         <v xml:space="preserve"> - QOSIMOV BEKZODBEK ORIFJONOVICH ga mulk huquqi asosida tegishli avtotransport vositasi MALIBU 2 , quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="239"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
     </row>
     <row r="28" spans="1:5" ht="67.5" hidden="1" customHeight="1">
-      <c r="A28" s="239" t="str">
+      <c r="A28" s="236" t="str">
         <f>" -   "&amp;'Общие данные'!C117&amp;" ga mulk huquqi asosida tegishli ko'chmas mulk shaklida "&amp;'Общие данные'!C126&amp;", manzili: "&amp;'Общие данные'!C123&amp;", quyidagi tafsilotlarga muvofiq:"</f>
         <v xml:space="preserve"> -   SHOUSMANOVA DAVLATXON XXX ga mulk huquqi asosida tegishli ko'chmas mulk shaklida 3 - xonali yakka tartibdagi uy-joy, manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON, quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="236"/>
     </row>
     <row r="29" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A29" s="239" t="str">
+      <c r="A29" s="236" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",'Заключение КК'!A27:E27,'Заключение КК'!A28:E28)</f>
         <v xml:space="preserve"> - QOSIMOV BEKZODBEK ORIFJONOVICH ga mulk huquqi asosida tegishli avtotransport vositasi MALIBU 2 , quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
     </row>
     <row r="30" spans="1:5" s="19" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="42" t="s">
@@ -5196,44 +5196,44 @@
       </c>
     </row>
     <row r="32" spans="1:5" outlineLevel="1">
-      <c r="A32" s="239" t="str">
+      <c r="A32" s="236" t="str">
         <f>"-* avtotransport vositasining mulkdori: "&amp;'Общие данные'!B117&amp;""</f>
         <v>-* avtotransport vositasining mulkdori: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
+      <c r="B32" s="236"/>
+      <c r="C32" s="236"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="236"/>
     </row>
     <row r="33" spans="1:5" outlineLevel="1">
-      <c r="A33" s="239" t="str">
+      <c r="A33" s="236" t="str">
         <f>"-* texpasport raqami:: "&amp;'Общие данные'!B124&amp;""</f>
         <v>-* texpasport raqami:: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B33" s="239"/>
-      <c r="C33" s="239"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="239"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
     </row>
     <row r="34" spans="1:5" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A34" s="239" t="str">
+      <c r="A34" s="236" t="str">
         <f>"-* roʻyxatdan oʻtgan manzili/garaj manzili: "&amp;'Общие данные'!B122&amp;""</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B34" s="239"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="239"/>
-      <c r="E34" s="239"/>
+      <c r="B34" s="236"/>
+      <c r="C34" s="236"/>
+      <c r="D34" s="236"/>
+      <c r="E34" s="236"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1">
-      <c r="A35" s="239" t="str">
+      <c r="A35" s="236" t="str">
         <f>"-* davlat raqami: "&amp;'Общие данные'!B126&amp;""</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B35" s="239"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="239"/>
-      <c r="E35" s="239"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="236"/>
+      <c r="D35" s="236"/>
+      <c r="E35" s="236"/>
     </row>
     <row r="36" spans="1:5" ht="9.75" customHeight="1">
       <c r="A36" s="22"/>
@@ -5276,7 +5276,7 @@
         <f>'Акт согласования'!D51</f>
         <v>37.39</v>
       </c>
-      <c r="E38" s="268" t="str">
+      <c r="E38" s="276" t="str">
         <f>""&amp;FIXED('Общие данные'!C136,2)&amp;" ("&amp;'Общие данные'!C137&amp;")"</f>
         <v>270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
@@ -5298,7 +5298,7 @@
         <f>'Акт согласования'!D52</f>
         <v>0</v>
       </c>
-      <c r="E39" s="268"/>
+      <c r="E39" s="276"/>
     </row>
     <row r="40" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="56" t="str">
@@ -5317,7 +5317,7 @@
         <f>'Акт согласования'!D53</f>
         <v>34.74</v>
       </c>
-      <c r="E40" s="268"/>
+      <c r="E40" s="276"/>
     </row>
     <row r="41" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="56">
@@ -5336,7 +5336,7 @@
         <f>'Акт согласования'!D54</f>
         <v>0</v>
       </c>
-      <c r="E41" s="268"/>
+      <c r="E41" s="276"/>
     </row>
     <row r="42" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A42" s="56">
@@ -5355,7 +5355,7 @@
         <f>'Акт согласования'!D55</f>
         <v>0</v>
       </c>
-      <c r="E42" s="268"/>
+      <c r="E42" s="276"/>
     </row>
     <row r="43" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A43" s="56">
@@ -5374,7 +5374,7 @@
         <f>'Акт согласования'!D56</f>
         <v>0</v>
       </c>
-      <c r="E43" s="268"/>
+      <c r="E43" s="276"/>
     </row>
     <row r="44" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A44" s="56">
@@ -5393,7 +5393,7 @@
         <f>'Акт согласования'!D57</f>
         <v>0</v>
       </c>
-      <c r="E44" s="268"/>
+      <c r="E44" s="276"/>
     </row>
     <row r="45" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A45" s="56">
@@ -5412,7 +5412,7 @@
         <f>'Акт согласования'!D58</f>
         <v>0</v>
       </c>
-      <c r="E45" s="268"/>
+      <c r="E45" s="276"/>
     </row>
     <row r="46" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A46" s="56">
@@ -5431,7 +5431,7 @@
         <f>'Акт согласования'!D59</f>
         <v>0</v>
       </c>
-      <c r="E46" s="268"/>
+      <c r="E46" s="276"/>
     </row>
     <row r="47" spans="1:5" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A47" s="56">
@@ -5450,7 +5450,7 @@
         <f>'Акт согласования'!D60</f>
         <v>0</v>
       </c>
-      <c r="E47" s="268"/>
+      <c r="E47" s="276"/>
     </row>
     <row r="48" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A48" s="56">
@@ -5469,7 +5469,7 @@
         <f>'Акт согласования'!D61</f>
         <v>0</v>
       </c>
-      <c r="E48" s="268"/>
+      <c r="E48" s="276"/>
     </row>
     <row r="49" spans="1:5" s="40" customFormat="1" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A49" s="57" t="str">
@@ -5494,190 +5494,190 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="40" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A50" s="239" t="str">
+      <c r="A50" s="236" t="str">
         <f>"-* ko'chmas mulk egasi: "&amp;'Общие данные'!C117&amp;""</f>
         <v>-* ko'chmas mulk egasi: SHOUSMANOVA DAVLATXON XXX</v>
       </c>
-      <c r="B50" s="239"/>
-      <c r="C50" s="239"/>
-      <c r="D50" s="239"/>
-      <c r="E50" s="239"/>
+      <c r="B50" s="236"/>
+      <c r="C50" s="236"/>
+      <c r="D50" s="236"/>
+      <c r="E50" s="236"/>
     </row>
     <row r="51" spans="1:5" s="40" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A51" s="239" t="str">
+      <c r="A51" s="236" t="str">
         <f>"-* reestr raqami: "&amp;'Общие данные'!C124&amp;""</f>
         <v>-* reestr raqami: 1718238/R-A1419303</v>
       </c>
-      <c r="B51" s="239"/>
-      <c r="C51" s="239"/>
-      <c r="D51" s="239"/>
-      <c r="E51" s="239"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
+      <c r="E51" s="236"/>
     </row>
     <row r="52" spans="1:5" s="40" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A52" s="239" t="str">
+      <c r="A52" s="236" t="str">
         <f>"-* kadastr raqami: "&amp;'Общие данные'!C127&amp;""</f>
         <v>-* kadastr raqami: №14:13:02:01:03:1179:0006:058 от 16.12.2020 г.</v>
       </c>
-      <c r="B52" s="239"/>
-      <c r="C52" s="239"/>
-      <c r="D52" s="239"/>
-      <c r="E52" s="239"/>
+      <c r="B52" s="236"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236"/>
+      <c r="E52" s="236"/>
     </row>
     <row r="53" spans="1:5" s="40" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A53" s="239" t="str">
+      <c r="A53" s="236" t="str">
         <f>"-* manzili: "&amp;'Общие данные'!C123&amp;""</f>
         <v>-* manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B53" s="239"/>
-      <c r="C53" s="239"/>
-      <c r="D53" s="239"/>
-      <c r="E53" s="239"/>
+      <c r="B53" s="236"/>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
+      <c r="E53" s="236"/>
     </row>
     <row r="54" spans="1:5" ht="9" customHeight="1" collapsed="1">
-      <c r="A54" s="239"/>
-      <c r="B54" s="239"/>
-      <c r="C54" s="239"/>
-      <c r="D54" s="239"/>
-      <c r="E54" s="239"/>
+      <c r="A54" s="236"/>
+      <c r="B54" s="236"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
+      <c r="E54" s="236"/>
     </row>
     <row r="55" spans="1:5" ht="39" customHeight="1">
-      <c r="A55" s="273" t="str">
+      <c r="A55" s="270" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"mikromoliya tashkilotining Xulosasi"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJmikromoliya tashkilotining Xulosasi</v>
       </c>
-      <c r="B55" s="273"/>
-      <c r="C55" s="273"/>
-      <c r="D55" s="273"/>
-      <c r="E55" s="273"/>
+      <c r="B55" s="270"/>
+      <c r="C55" s="270"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="270"/>
     </row>
     <row r="56" spans="1:5" ht="48" customHeight="1">
-      <c r="A56" s="239" t="str">
+      <c r="A56" s="236" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" kredit qo‘mitasining xulosasiga quyidagi shartlarda "&amp;'Общие данные'!B10&amp;"ga "&amp;'Общие данные'!B65&amp;" berish masalasi kiritiladi:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ kredit qo‘mitasining xulosasiga quyidagi shartlarda QOSIMOV BEKZODBEK ORIFJONOVICHga mikrokredit berish masalasi kiritiladi:</v>
       </c>
-      <c r="B56" s="239"/>
-      <c r="C56" s="239"/>
-      <c r="D56" s="239"/>
-      <c r="E56" s="239"/>
+      <c r="B56" s="236"/>
+      <c r="C56" s="236"/>
+      <c r="D56" s="236"/>
+      <c r="E56" s="236"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="239" t="str">
+      <c r="A57" s="236" t="str">
         <f>A11</f>
         <v>Mikrokredit summasi: 180 000 000,00 (yuz sakson million so'm) so'm.</v>
       </c>
-      <c r="B57" s="239"/>
-      <c r="C57" s="239"/>
-      <c r="D57" s="239"/>
-      <c r="E57" s="239"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="236"/>
+      <c r="D57" s="236"/>
+      <c r="E57" s="236"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="239" t="str">
+      <c r="A58" s="236" t="str">
         <f t="shared" ref="A58:A64" si="0">A12</f>
         <v>Mikrokredit muddati: 12 (o'n ikki) oy.</v>
       </c>
-      <c r="B58" s="239"/>
-      <c r="C58" s="239"/>
-      <c r="D58" s="239"/>
-      <c r="E58" s="239"/>
+      <c r="B58" s="236"/>
+      <c r="C58" s="236"/>
+      <c r="D58" s="236"/>
+      <c r="E58" s="236"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="239" t="str">
+      <c r="A59" s="236" t="str">
         <f t="shared" si="0"/>
         <v>Mikrokreditdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B59" s="239"/>
-      <c r="C59" s="239"/>
-      <c r="D59" s="239"/>
-      <c r="E59" s="239"/>
+      <c r="B59" s="236"/>
+      <c r="C59" s="236"/>
+      <c r="D59" s="236"/>
+      <c r="E59" s="236"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="239" t="str">
+      <c r="A60" s="236" t="str">
         <f t="shared" si="0"/>
         <v>Mikrokredit bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B60" s="239"/>
-      <c r="C60" s="239"/>
-      <c r="D60" s="239"/>
-      <c r="E60" s="239"/>
+      <c r="B60" s="236"/>
+      <c r="C60" s="236"/>
+      <c r="D60" s="236"/>
+      <c r="E60" s="236"/>
     </row>
     <row r="61" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A61" s="239" t="str">
+      <c r="A61" s="236" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> - mikrokredit shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B61" s="239"/>
-      <c r="C61" s="239"/>
-      <c r="D61" s="239"/>
-      <c r="E61" s="239"/>
+      <c r="B61" s="236"/>
+      <c r="C61" s="236"/>
+      <c r="D61" s="236"/>
+      <c r="E61" s="236"/>
     </row>
     <row r="62" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A62" s="239" t="str">
+      <c r="A62" s="236" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B62" s="239"/>
-      <c r="C62" s="239"/>
-      <c r="D62" s="239"/>
-      <c r="E62" s="239"/>
+      <c r="B62" s="236"/>
+      <c r="C62" s="236"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="236"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="239" t="str">
+      <c r="A63" s="236" t="str">
         <f t="shared" si="0"/>
         <v>Mikrokredit ta’minoti::</v>
       </c>
-      <c r="B63" s="239"/>
-      <c r="C63" s="239"/>
-      <c r="D63" s="239"/>
-      <c r="E63" s="239"/>
+      <c r="B63" s="236"/>
+      <c r="C63" s="236"/>
+      <c r="D63" s="236"/>
+      <c r="E63" s="236"/>
     </row>
     <row r="64" spans="1:5" ht="72" customHeight="1">
-      <c r="A64" s="239" t="str">
+      <c r="A64" s="236" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  Egalik huquqi QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   MALIBU 2, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, davlat raqam belgisi 60Q081BB, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="B64" s="239"/>
-      <c r="C64" s="239"/>
-      <c r="D64" s="239"/>
-      <c r="E64" s="239"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="236"/>
+      <c r="D64" s="236"/>
+      <c r="E64" s="236"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="239"/>
-      <c r="B65" s="239"/>
-      <c r="C65" s="239"/>
-      <c r="D65" s="239"/>
-      <c r="E65" s="239"/>
+      <c r="A65" s="236"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="236"/>
+      <c r="D65" s="236"/>
+      <c r="E65" s="236"/>
     </row>
     <row r="66" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A66" s="239" t="str">
+      <c r="A66" s="236" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" mikromoliya tashkilotining xulosasi  "&amp;TEXT('Общие данные'!B2,"ДД.ММ.ГГГГ")&amp;" y. tayyorlangan"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining xulosasi  04.02.2025 y. tayyorlangan</v>
       </c>
-      <c r="B66" s="239"/>
-      <c r="C66" s="239"/>
-      <c r="D66" s="239"/>
-      <c r="E66" s="239"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="236"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="236"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="239"/>
-      <c r="B67" s="239"/>
-      <c r="C67" s="239"/>
-      <c r="D67" s="239"/>
-      <c r="E67" s="239"/>
+      <c r="A67" s="236"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="236"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="236"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="240"/>
-      <c r="B68" s="240"/>
-      <c r="C68" s="240"/>
+      <c r="A68" s="246"/>
+      <c r="B68" s="246"/>
+      <c r="C68" s="246"/>
       <c r="D68" s="25"/>
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A69" s="240" t="str">
+      <c r="A69" s="246" t="str">
         <f>'Общие данные'!A161</f>
         <v>Nukus filiali boshligi</v>
       </c>
-      <c r="B69" s="240"/>
-      <c r="C69" s="240"/>
+      <c r="B69" s="246"/>
+      <c r="C69" s="246"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26" t="str">
         <f>'Общие данные'!B161</f>
@@ -5685,21 +5685,21 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="239"/>
-      <c r="B70" s="239"/>
-      <c r="C70" s="239"/>
-      <c r="D70" s="239"/>
-      <c r="E70" s="239"/>
+      <c r="A70" s="236"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="236"/>
+      <c r="D70" s="236"/>
+      <c r="E70" s="236"/>
     </row>
     <row r="71" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A71" s="239" t="str">
+      <c r="A71" s="236" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" mikromoliya tashkilotining Kredit qo‘mitasi a’zolari "&amp;'Общие данные'!B147&amp;" mikromoliya tashkilotining xulosasi va Mijoz tomonidan taqdim etilgan ma’lumotlar bilan tanishdilar:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining Kredit qo‘mitasi a’zolari «CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining xulosasi va Mijoz tomonidan taqdim etilgan ma’lumotlar bilan tanishdilar:</v>
       </c>
-      <c r="B71" s="239"/>
-      <c r="C71" s="239"/>
-      <c r="D71" s="239"/>
-      <c r="E71" s="239"/>
+      <c r="B71" s="236"/>
+      <c r="C71" s="236"/>
+      <c r="D71" s="236"/>
+      <c r="E71" s="236"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="22"/>
@@ -5725,11 +5725,11 @@
       <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="240" t="str">
+      <c r="A75" s="246" t="str">
         <f>'Общие данные'!B160</f>
         <v xml:space="preserve"> Jumanazarov B.T</v>
       </c>
-      <c r="B75" s="240"/>
+      <c r="B75" s="246"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
@@ -5742,60 +5742,17 @@
       <c r="E76" s="25"/>
     </row>
     <row r="77" spans="1:5" ht="21" customHeight="1">
-      <c r="A77" s="239" t="str">
+      <c r="A77" s="236" t="str">
         <f>'Общие данные'!B159</f>
         <v>Mominov B.X.</v>
       </c>
-      <c r="B77" s="239"/>
-      <c r="C77" s="239"/>
-      <c r="D77" s="239"/>
-      <c r="E77" s="239"/>
+      <c r="B77" s="236"/>
+      <c r="C77" s="236"/>
+      <c r="D77" s="236"/>
+      <c r="E77" s="236"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="E38:E48"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A56:E56"/>
@@ -5812,6 +5769,49 @@
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="E38:E48"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A38:D49">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
@@ -5849,18 +5849,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="319" t="str">
+      <c r="A1" s="308" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" shartnoma "&amp;'Общие данные'!B66&amp;""</f>
         <v>Mikrokredit shartnoma №269-NS</v>
       </c>
-      <c r="B1" s="319"/>
+      <c r="B1" s="308"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="319" t="str">
+      <c r="A3" s="308" t="str">
         <f>"Toshkent shahri                                                                               "&amp;'Общие данные'!B70&amp;""</f>
         <v>Toshkent shahri                                                                               4 fevral 2025 y.</v>
       </c>
-      <c r="B3" s="319"/>
+      <c r="B3" s="308"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="81"/>
@@ -5873,10 +5873,10 @@
       <c r="B5" s="309"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="319" t="s">
+      <c r="A7" s="308" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="319"/>
+      <c r="B7" s="308"/>
     </row>
     <row r="8" spans="1:3" ht="51.75" customHeight="1">
       <c r="A8" s="309" t="str">
@@ -5896,11 +5896,11 @@
       <c r="A10" s="35"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="310" t="str">
+      <c r="A11" s="312" t="str">
         <f>"2. "&amp;'Общие данные'!D64&amp;" BERISH VA QAYTARISH TARTIBI"</f>
         <v>2. MIKROKREDIT BERISH VA QAYTARISH TARTIBI</v>
       </c>
-      <c r="B11" s="310"/>
+      <c r="B11" s="312"/>
       <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
@@ -5956,10 +5956,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="105.75" customHeight="1">
-      <c r="A18" s="312" t="s">
+      <c r="A18" s="311" t="s">
         <v>401</v>
       </c>
-      <c r="B18" s="312"/>
+      <c r="B18" s="311"/>
     </row>
     <row r="19" spans="1:11" ht="36" customHeight="1">
       <c r="A19" s="309" t="str">
@@ -5976,11 +5976,11 @@
       <c r="B20" s="309"/>
     </row>
     <row r="21" spans="1:11" ht="113.25" customHeight="1">
-      <c r="A21" s="318" t="str">
+      <c r="A21" s="313" t="str">
         <f>CONCATENATE(C21,H21,I21)</f>
         <v>2.9. Qarz oluvchi jismoniy shaxslarning kreditlar (mikrokreditlar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga olingan Markaziy bank Boshqaruvining 28.09.2019 y. 24/5-son qarori bilan tasdiqlangan), qarz yuki ko‘rsatkichi har bir qarz oluvchiga qarz beruvchi tomonidan mikrokredit ajratishda uning summasi va qarz oluvchining amaldagi kredit (mikrokredit) shartnomalari bo‘yicha asosiy qarz qoldig‘i yig‘indisi bazaviy hisoblash miqdorining 50 baravaridan oshganda hisoblanadi.</v>
       </c>
-      <c r="B21" s="318"/>
+      <c r="B21" s="313"/>
       <c r="C21" s="9" t="str">
         <f>"2.9. Qarz oluvchi jismoniy shaxslarning kreditlar ("&amp;'Общие данные'!B65&amp;"lar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga "</f>
         <v xml:space="preserve">2.9. Qarz oluvchi jismoniy shaxslarning kreditlar (mikrokreditlar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga </v>
@@ -5995,11 +5995,11 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="310" t="str">
+      <c r="A22" s="312" t="str">
         <f>"3. "&amp;'Общие данные'!D64&amp;" TA'MINOTI BO‘YICHA "</f>
         <v xml:space="preserve">3. MIKROKREDIT TA'MINOTI BO‘YICHA </v>
       </c>
-      <c r="B22" s="310"/>
+      <c r="B22" s="312"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
       <c r="A23" s="309" t="str">
@@ -6009,11 +6009,11 @@
       <c r="B23" s="309"/>
     </row>
     <row r="24" spans="1:11" ht="147" customHeight="1">
-      <c r="A24" s="316" t="str">
+      <c r="A24" s="310" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,договор!A28,IF('Общие данные'!B103='Общие данные'!D103,договор!A25,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 4 fevralda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq QORA CHYORNIY rangli, ishlab chiqarilgan yili – 2022 yil,  dvigatel raqami 211470021, shassi - RAKAMSIZ,  kuzov turi - YENGIL SEDAN, kuzov raqami №KL1ZA69X9NB504276, davlat raqam belgisi 60Q081BB bo'lgan MALIBU 2 rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli va kelishilgan garov qiymati 2025 yil 4 fevralda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 270 000 000,00 (ikki yuz yetmish million so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B24" s="316"/>
+      <c r="B24" s="310"/>
     </row>
     <row r="25" spans="1:11" ht="129" hidden="1" customHeight="1">
       <c r="A25" s="309" t="str">
@@ -6023,11 +6023,11 @@
       <c r="B25" s="309"/>
     </row>
     <row r="26" spans="1:11" ht="129.75" hidden="1" customHeight="1">
-      <c r="A26" s="316" t="str">
+      <c r="A26" s="310" t="str">
         <f>"3.1.1. "&amp;'Общие данные'!N126&amp;" tomonidan "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;'Общие данные'!C123&amp;" manzilida joylashgan, "&amp;'Общие данные'!E126&amp;" bo'lgan, "&amp;'Общие данные'!E125&amp;" ko'rinishidagi ko'chmas mulk (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ko'ra  "&amp;'Общие данные'!C117&amp;"ga tegishli va kelishilgan garov qiymati "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B138&amp;") so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 4 fevralda imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72.13 kv.m., yashah maydoni - 37.39 kv.m bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ko'ra  SHOUSMANOVA DAVLATXON XXXga tegishli va kelishilgan garov qiymati 2025 yil 4 fevralda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 270 000 000,00 (ikki yuz yetmish million so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B26" s="316"/>
+      <c r="B26" s="310"/>
     </row>
     <row r="27" spans="1:11" ht="131.25" hidden="1" customHeight="1">
       <c r="A27" s="309" t="str">
@@ -6037,28 +6037,28 @@
       <c r="B27" s="309"/>
     </row>
     <row r="28" spans="1:11" ht="114" hidden="1" customHeight="1">
-      <c r="A28" s="316" t="str">
+      <c r="A28" s="310" t="str">
         <f>IF('Общие данные'!B92='Общие данные'!C92,A29,IF('Общие данные'!B92='Общие данные'!D92,A30,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 4 fevralda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq QORA CHYORNIY rangli, ishlab chiqarilgan yili – 2022 yil,  dvigatel raqami 211470021, shassi - RAKAMSIZ,  kuzov turi - YENGIL SEDAN, kuzov raqami №KL1ZA69X9NB504276, davlat raqam belgisi 60Q081BB bo'lgan MALIBU 2 rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli va kelishilgan garov qiymati 2025 yil 4 fevralda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 270 000 000,00 (ikki yuz yetmish million so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B28" s="316"/>
+      <c r="B28" s="310"/>
       <c r="K28" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="114.75" hidden="1" customHeight="1">
-      <c r="A29" s="316" t="str">
+      <c r="A29" s="310" t="str">
         <f>"3.1.1. "&amp;'Общие данные'!N126&amp;" tomonidan "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;'Общие данные'!B134&amp;" rangli, ishlab chiqarilgan yili – "&amp;'Общие данные'!B135&amp;" yil,  dvigatel raqami "&amp;'Общие данные'!B131&amp;", shassi - "&amp;'Общие данные'!B132&amp;",  kuzov turi - "&amp;'Общие данные'!B128&amp;", kuzov raqami №"&amp;'Общие данные'!B129&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;" bo'lgan "&amp;'Общие данные'!B125&amp;" rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  "&amp;'Общие данные'!B117&amp;"ga tegishli va kelishilgan garov qiymati "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B138&amp;") so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 4 fevralda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq QORA CHYORNIY rangli, ishlab chiqarilgan yili – 2022 yil,  dvigatel raqami 211470021, shassi - RAKAMSIZ,  kuzov turi - YENGIL SEDAN, kuzov raqami №KL1ZA69X9NB504276, davlat raqam belgisi 60Q081BB bo'lgan MALIBU 2 rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli va kelishilgan garov qiymati 2025 yil 4 fevralda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 270 000 000,00 (ikki yuz yetmish million so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B29" s="316"/>
+      <c r="B29" s="310"/>
     </row>
     <row r="30" spans="1:11" ht="1.5" customHeight="1">
-      <c r="A30" s="317" t="str">
+      <c r="A30" s="315" t="str">
         <f>"3.1.1. "&amp;'Общие данные'!N126&amp;" tomonidan "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;'Общие данные'!B134&amp;" rangli, ishlab chiqarilgan yili – "&amp;'Общие данные'!B135&amp;" yil,  dvigatel raqami "&amp;'Общие данные'!B131&amp;", shassi - "&amp;'Общие данные'!B132&amp;",  kuzov turi - "&amp;'Общие данные'!B128&amp;", kuzov raqami №"&amp;'Общие данные'!B129&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;" bo'lgan "&amp;'Общие данные'!B125&amp;" rusumli avtomashinasi (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ega  "&amp;'Общие данные'!B117&amp;"ga tegishli va kelishilgan garov qiymati "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B138&amp;") so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 4 fevralda imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq QORA CHYORNIY rangli, ishlab chiqarilgan yili – 2022 yil,  dvigatel raqami 211470021, shassi - RAKAMSIZ,  kuzov turi - YENGIL SEDAN, kuzov raqami №KL1ZA69X9NB504276, davlat raqam belgisi 60Q081BB bo'lgan MALIBU 2 rusumli avtomashinasi (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ega  QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli va kelishilgan garov qiymati 2025 yil 4 fevralda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 270 000 000,00 (ikki yuz yetmish million so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B30" s="317"/>
+      <c r="B30" s="315"/>
     </row>
     <row r="31" spans="1:11" ht="135" customHeight="1">
       <c r="A31" s="314" t="str">
@@ -6098,17 +6098,17 @@
       <c r="B35" s="314"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="311" t="s">
+      <c r="A37" s="317" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="311"/>
+      <c r="B37" s="317"/>
       <c r="C37" s="92"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="315" t="s">
+      <c r="A38" s="316" t="s">
         <v>339</v>
       </c>
-      <c r="B38" s="315"/>
+      <c r="B38" s="316"/>
     </row>
     <row r="39" spans="1:8" ht="138" customHeight="1">
       <c r="A39" s="314" t="str">
@@ -6242,17 +6242,17 @@
       <c r="C55" s="197"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="310" t="s">
+      <c r="A57" s="312" t="s">
         <v>333</v>
       </c>
-      <c r="B57" s="310"/>
+      <c r="B57" s="312"/>
       <c r="C57" s="196"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="313" t="s">
+      <c r="A58" s="318" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="313"/>
+      <c r="B58" s="318"/>
       <c r="C58" s="198"/>
     </row>
     <row r="59" spans="1:8" ht="36" customHeight="1">
@@ -6295,10 +6295,10 @@
       <c r="C63" s="197"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="313" t="s">
+      <c r="A64" s="318" t="s">
         <v>331</v>
       </c>
-      <c r="B64" s="313"/>
+      <c r="B64" s="318"/>
       <c r="C64" s="198"/>
     </row>
     <row r="65" spans="1:8" ht="37.5" customHeight="1">
@@ -6354,10 +6354,10 @@
       <c r="C70" s="197"/>
     </row>
     <row r="71" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A71" s="312" t="s">
+      <c r="A71" s="311" t="s">
         <v>366</v>
       </c>
-      <c r="B71" s="312"/>
+      <c r="B71" s="311"/>
       <c r="C71" s="200"/>
     </row>
     <row r="72" spans="1:8" ht="71.25" customHeight="1">
@@ -6397,10 +6397,10 @@
       <c r="A75" s="88"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="311" t="s">
+      <c r="A76" s="317" t="s">
         <v>330</v>
       </c>
-      <c r="B76" s="311"/>
+      <c r="B76" s="317"/>
       <c r="C76" s="199"/>
     </row>
     <row r="77" spans="1:8" ht="98.25" customHeight="1">
@@ -6439,10 +6439,10 @@
       <c r="C80" s="197"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="303" t="s">
+      <c r="A82" s="300" t="s">
         <v>326</v>
       </c>
-      <c r="B82" s="303"/>
+      <c r="B82" s="300"/>
       <c r="C82" s="80"/>
     </row>
     <row r="83" spans="1:3" ht="162.75" customHeight="1">
@@ -6474,10 +6474,10 @@
       <c r="C86" s="197"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="303" t="s">
+      <c r="A88" s="300" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="303"/>
+      <c r="B88" s="300"/>
       <c r="C88" s="80"/>
     </row>
     <row r="89" spans="1:3" ht="114.75" customHeight="1">
@@ -6503,10 +6503,10 @@
       <c r="C91" s="197"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="308" t="s">
+      <c r="A93" s="319" t="s">
         <v>321</v>
       </c>
-      <c r="B93" s="308"/>
+      <c r="B93" s="319"/>
       <c r="C93" s="90"/>
     </row>
     <row r="94" spans="1:3" ht="20.25" customHeight="1">
@@ -6532,10 +6532,10 @@
       <c r="C96" s="197"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="310" t="s">
+      <c r="A98" s="312" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="310"/>
+      <c r="B98" s="312"/>
       <c r="C98" s="79"/>
     </row>
     <row r="99" spans="1:3" ht="82.5" customHeight="1">
@@ -6560,10 +6560,10 @@
       <c r="C101" s="197"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="303" t="s">
+      <c r="A103" s="300" t="s">
         <v>314</v>
       </c>
-      <c r="B103" s="303"/>
+      <c r="B103" s="300"/>
       <c r="C103" s="174"/>
     </row>
     <row r="104" spans="1:3" ht="37.5" customHeight="1">
@@ -6621,10 +6621,10 @@
       <c r="C111" s="197"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="308" t="s">
+      <c r="A113" s="319" t="s">
         <v>351</v>
       </c>
-      <c r="B113" s="308"/>
+      <c r="B113" s="319"/>
       <c r="C113" s="90"/>
     </row>
     <row r="115" spans="1:3">
@@ -6725,6 +6725,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A25:B25"/>
@@ -6741,88 +6823,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6843,8 +6843,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -6867,8 +6867,8 @@
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="79.5" customHeight="1">
@@ -6892,12 +6892,12 @@
       <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="7.5" customHeight="1">
-      <c r="A5" s="266"/>
-      <c r="B5" s="266"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
+      <c r="A5" s="274"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
     </row>
     <row r="6" spans="1:16" ht="7.5" customHeight="1">
       <c r="A6" s="227"/>
@@ -6908,25 +6908,25 @@
       <c r="F6" s="227"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="276" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="268" t="s">
+      <c r="C7" s="276" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="269" t="s">
+      <c r="D7" s="277" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1">
-      <c r="A8" s="267"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="20" t="s">
         <v>292</v>
       </c>
@@ -7331,15 +7331,12 @@
       <c r="O20" s="320"/>
       <c r="P20" s="320"/>
     </row>
-    <row r="21" spans="1:16" hidden="1">
+    <row r="21" spans="1:16">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="36" t="b">
-        <f>'График дифференц'!B20</f>
-        <v>0</v>
-      </c>
+      <c r="B21" s="36"/>
       <c r="C21" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C20,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C20))</f>
         <v>0</v>
@@ -7366,15 +7363,12 @@
       <c r="O21" s="320"/>
       <c r="P21" s="320"/>
     </row>
-    <row r="22" spans="1:16" hidden="1">
+    <row r="22" spans="1:16">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="36" t="b">
-        <f>'График дифференц'!B21</f>
-        <v>0</v>
-      </c>
+      <c r="B22" s="36"/>
       <c r="C22" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C21,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C21))</f>
         <v>0</v>
@@ -7401,15 +7395,12 @@
       <c r="O22" s="320"/>
       <c r="P22" s="320"/>
     </row>
-    <row r="23" spans="1:16" hidden="1">
+    <row r="23" spans="1:16">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="36" t="b">
-        <f>'График дифференц'!B22</f>
-        <v>0</v>
-      </c>
+      <c r="B23" s="36"/>
       <c r="C23" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C22,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C22))</f>
         <v>0</v>
@@ -7436,15 +7427,12 @@
       <c r="O23" s="320"/>
       <c r="P23" s="320"/>
     </row>
-    <row r="24" spans="1:16" hidden="1">
+    <row r="24" spans="1:16">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="36" t="b">
-        <f>'График дифференц'!B23</f>
-        <v>0</v>
-      </c>
+      <c r="B24" s="36"/>
       <c r="C24" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C23,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C23))</f>
         <v>0</v>
@@ -7471,15 +7459,12 @@
       <c r="O24" s="320"/>
       <c r="P24" s="320"/>
     </row>
-    <row r="25" spans="1:16" hidden="1">
+    <row r="25" spans="1:16">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="36" t="b">
-        <f>'График дифференц'!B24</f>
-        <v>0</v>
-      </c>
+      <c r="B25" s="36"/>
       <c r="C25" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C24,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C24))</f>
         <v>0</v>
@@ -7497,15 +7482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1">
+    <row r="26" spans="1:16">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="36" t="b">
-        <f>'График дифференц'!B25</f>
-        <v>0</v>
-      </c>
+      <c r="B26" s="36"/>
       <c r="C26" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C25,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C25))</f>
         <v>0</v>
@@ -7523,15 +7505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1">
+    <row r="27" spans="1:16">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="36" t="b">
-        <f>'График дифференц'!B26</f>
-        <v>0</v>
-      </c>
+      <c r="B27" s="36"/>
       <c r="C27" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C26,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C26))</f>
         <v>0</v>
@@ -7549,15 +7528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1">
+    <row r="28" spans="1:16">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="36" t="b">
-        <f>'График дифференц'!B27</f>
-        <v>0</v>
-      </c>
+      <c r="B28" s="36"/>
       <c r="C28" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C27,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C27))</f>
         <v>0</v>
@@ -7575,15 +7551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1">
+    <row r="29" spans="1:16">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="36" t="b">
-        <f>'График дифференц'!B28</f>
-        <v>0</v>
-      </c>
+      <c r="B29" s="36"/>
       <c r="C29" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C28,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C28))</f>
         <v>0</v>
@@ -7601,15 +7574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1">
+    <row r="30" spans="1:16">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="36" t="b">
-        <f>'График дифференц'!B29</f>
-        <v>0</v>
-      </c>
+      <c r="B30" s="36"/>
       <c r="C30" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C29,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C29))</f>
         <v>0</v>
@@ -7627,15 +7597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1">
+    <row r="31" spans="1:16">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="36" t="b">
-        <f>'График дифференц'!B30</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="36"/>
       <c r="C31" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C30,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C30))</f>
         <v>0</v>
@@ -7653,15 +7620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1">
+    <row r="32" spans="1:16">
       <c r="A32" s="21">
         <f>1+A31</f>
         <v>24</v>
       </c>
-      <c r="B32" s="36" t="b">
-        <f>'График дифференц'!B31</f>
-        <v>0</v>
-      </c>
+      <c r="B32" s="36"/>
       <c r="C32" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C31,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C31))</f>
         <v>0</v>
@@ -7679,15 +7643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" s="21">
         <f t="shared" ref="A33:A44" si="1">1+A32</f>
         <v>25</v>
       </c>
-      <c r="B33" s="36" t="b">
-        <f>'График дифференц'!B32</f>
-        <v>0</v>
-      </c>
+      <c r="B33" s="36"/>
       <c r="C33" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C32,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C32))</f>
         <v>0</v>
@@ -7705,15 +7666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" s="21">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B34" s="36" t="b">
-        <f>'График дифференц'!B33</f>
-        <v>0</v>
-      </c>
+      <c r="B34" s="36"/>
       <c r="C34" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C33,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C33))</f>
         <v>0</v>
@@ -7731,15 +7689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" s="21">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B35" s="36" t="b">
-        <f>'График дифференц'!B34</f>
-        <v>0</v>
-      </c>
+      <c r="B35" s="36"/>
       <c r="C35" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C34,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C34))</f>
         <v>0</v>
@@ -7757,15 +7712,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" s="21">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B36" s="36" t="b">
-        <f>'График дифференц'!B35</f>
-        <v>0</v>
-      </c>
+      <c r="B36" s="36"/>
       <c r="C36" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C35,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C35))</f>
         <v>0</v>
@@ -7783,15 +7735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" s="21">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B37" s="36" t="b">
-        <f>'График дифференц'!B36</f>
-        <v>0</v>
-      </c>
+      <c r="B37" s="36"/>
       <c r="C37" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C36,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C36))</f>
         <v>0</v>
@@ -7809,15 +7758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" s="21">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B38" s="36" t="b">
-        <f>'График дифференц'!B37</f>
-        <v>0</v>
-      </c>
+      <c r="B38" s="36"/>
       <c r="C38" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C37,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C37))</f>
         <v>0</v>
@@ -7835,15 +7781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" s="21">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B39" s="36" t="b">
-        <f>'График дифференц'!B38</f>
-        <v>0</v>
-      </c>
+      <c r="B39" s="36"/>
       <c r="C39" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C38,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C38))</f>
         <v>0</v>
@@ -7861,15 +7804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" s="21">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B40" s="36" t="b">
-        <f>'График дифференц'!B39</f>
-        <v>0</v>
-      </c>
+      <c r="B40" s="36"/>
       <c r="C40" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C39,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C39))</f>
         <v>0</v>
@@ -7887,15 +7827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" s="21">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B41" s="36" t="b">
-        <f>'График дифференц'!B40</f>
-        <v>0</v>
-      </c>
+      <c r="B41" s="36"/>
       <c r="C41" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C40,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C40))</f>
         <v>0</v>
@@ -7913,15 +7850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" s="21">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B42" s="36" t="b">
-        <f>'График дифференц'!B41</f>
-        <v>0</v>
-      </c>
+      <c r="B42" s="36"/>
       <c r="C42" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C41,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C41))</f>
         <v>0</v>
@@ -7939,15 +7873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" s="21">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B43" s="36" t="b">
-        <f>'График дифференц'!B42</f>
-        <v>0</v>
-      </c>
+      <c r="B43" s="36"/>
       <c r="C43" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C42,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C42))</f>
         <v>0</v>
@@ -7965,15 +7896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" s="21">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B44" s="36" t="b">
-        <f>'График дифференц'!B43</f>
-        <v>0</v>
-      </c>
+      <c r="B44" s="36"/>
       <c r="C44" s="37">
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!C43,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!C43))</f>
         <v>0</v>
@@ -8018,15 +7946,15 @@
       <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A47" s="239" t="str">
+      <c r="A47" s="236" t="str">
         <f>"*"&amp;'Общие данные'!C64&amp;" bo‘yicha to‘lovlar to‘lov jadvalida ko‘rsatilmagan sanalarda to‘langan taqdirda, to‘lov summasi mikroqarz shartnomasining 2.2.-bandiga muvofiq "&amp;'Общие данные'!B65&amp;" qoldig‘iga hisoblangan foizlar summasiga o‘zgartiriladi."</f>
         <v>*Mikrokredit bo‘yicha to‘lovlar to‘lov jadvalida ko‘rsatilmagan sanalarda to‘langan taqdirda, to‘lov summasi mikroqarz shartnomasining 2.2.-bandiga muvofiq mikrokredit qoldig‘iga hisoblangan foizlar summasiga o‘zgartiriladi.</v>
       </c>
-      <c r="B47" s="239"/>
-      <c r="C47" s="239"/>
-      <c r="D47" s="239"/>
-      <c r="E47" s="239"/>
-      <c r="F47" s="239"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="236"/>
+      <c r="E47" s="236"/>
+      <c r="F47" s="236"/>
     </row>
     <row r="48" spans="1:6" ht="7.5" customHeight="1"/>
     <row r="49" spans="1:6" ht="15" customHeight="1">
@@ -8050,110 +7978,110 @@
       <c r="F50" s="272"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="273" t="str">
+      <c r="A51" s="270" t="str">
         <f>договор!A117</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="B51" s="273"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="273" t="str">
+      <c r="B51" s="270"/>
+      <c r="C51" s="270"/>
+      <c r="D51" s="270" t="str">
         <f>договор!B117</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="E51" s="273"/>
-      <c r="F51" s="273"/>
+      <c r="E51" s="270"/>
+      <c r="F51" s="270"/>
     </row>
     <row r="52" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A52" s="270" t="str">
+      <c r="A52" s="266" t="str">
         <f>договор!A119</f>
         <v>Manzil: Toshkent shahri, Olmazor tumani, Sagbon ko'chasi, 30 boshi berk, 6-uy</v>
       </c>
-      <c r="B52" s="270"/>
-      <c r="C52" s="270"/>
-      <c r="D52" s="270" t="str">
+      <c r="B52" s="266"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="266" t="str">
         <f>договор!B119</f>
         <v>Manzil: QORAQALPOGISTON RESPUBLIKASI  NUKUS SHAHARI OZBEKISTON GUZARI 71 4 UY</v>
       </c>
-      <c r="E52" s="270"/>
-      <c r="F52" s="270"/>
+      <c r="E52" s="266"/>
+      <c r="F52" s="266"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
-      <c r="A53" s="270" t="str">
+      <c r="A53" s="266" t="str">
         <f>договор!A120</f>
         <v>h/r: №20216000705068380001</v>
       </c>
-      <c r="B53" s="270"/>
-      <c r="C53" s="270"/>
-      <c r="D53" s="270" t="str">
+      <c r="B53" s="266"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="266" t="str">
         <f>договор!B121</f>
         <v>pasport seriyasi: AB7685294, ANDIJON VILOYATI SHAXRIXON TUMANI IIB tomonidan 09.09.2017 yilda berilgan</v>
       </c>
-      <c r="E53" s="270"/>
-      <c r="F53" s="270"/>
+      <c r="E53" s="266"/>
+      <c r="F53" s="266"/>
     </row>
     <row r="54" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A54" s="270" t="str">
+      <c r="A54" s="266" t="str">
         <f>договор!A121</f>
         <v>MFO: №01042 в ATB “Kapitalbank” Sergeli filiali</v>
       </c>
-      <c r="B54" s="270"/>
-      <c r="C54" s="270"/>
-      <c r="D54" s="270"/>
-      <c r="E54" s="270"/>
-      <c r="F54" s="270"/>
+      <c r="B54" s="266"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="266"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="266"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="270" t="str">
+      <c r="A55" s="266" t="str">
         <f>договор!A122</f>
         <v>STIR: 306365847</v>
       </c>
-      <c r="B55" s="270"/>
-      <c r="C55" s="270"/>
-      <c r="D55" s="270" t="str">
+      <c r="B55" s="266"/>
+      <c r="C55" s="266"/>
+      <c r="D55" s="266" t="str">
         <f>договор!B122</f>
         <v>Tel: 91-496-91-11Klient</v>
       </c>
-      <c r="E55" s="270"/>
-      <c r="F55" s="270"/>
+      <c r="E55" s="266"/>
+      <c r="F55" s="266"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
-      <c r="A56" s="270" t="str">
+      <c r="A56" s="266" t="str">
         <f>договор!A123</f>
         <v>Tel: (78) 113 31 33</v>
       </c>
-      <c r="B56" s="270"/>
-      <c r="C56" s="270"/>
-      <c r="D56" s="270" t="str">
+      <c r="B56" s="266"/>
+      <c r="C56" s="266"/>
+      <c r="D56" s="266" t="str">
         <f>договор!B123</f>
         <v>90-708-11-28 кизи</v>
       </c>
-      <c r="E56" s="270"/>
-      <c r="F56" s="270"/>
+      <c r="E56" s="266"/>
+      <c r="F56" s="266"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" s="270" t="str">
+      <c r="A57" s="266" t="str">
         <f>договор!A124</f>
         <v>(78) 113 31 34</v>
       </c>
-      <c r="B57" s="270"/>
-      <c r="C57" s="270"/>
-      <c r="D57" s="270" t="str">
+      <c r="B57" s="266"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="266" t="str">
         <f>договор!B124</f>
         <v>33-421-81-05 угли</v>
       </c>
-      <c r="E57" s="270"/>
-      <c r="F57" s="270"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
     </row>
     <row r="58" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A58" s="270"/>
-      <c r="B58" s="270"/>
-      <c r="C58" s="270"/>
-      <c r="D58" s="270" t="str">
+      <c r="A58" s="266"/>
+      <c r="B58" s="266"/>
+      <c r="C58" s="266"/>
+      <c r="D58" s="266" t="str">
         <f>IF(договор!B125=0,"",договор!B125)</f>
         <v/>
       </c>
-      <c r="E58" s="270"/>
-      <c r="F58" s="270"/>
+      <c r="E58" s="266"/>
+      <c r="F58" s="266"/>
     </row>
     <row r="59" spans="1:6" ht="21.75" customHeight="1">
       <c r="A59" s="321" t="str">
@@ -8162,20 +8090,20 @@
       </c>
       <c r="B59" s="321"/>
       <c r="C59" s="321"/>
-      <c r="D59" s="273" t="str">
+      <c r="D59" s="270" t="str">
         <f>договор!B126</f>
         <v>QOSIMOV  B.O.     __________________</v>
       </c>
-      <c r="E59" s="273"/>
-      <c r="F59" s="273"/>
+      <c r="E59" s="270"/>
+      <c r="F59" s="270"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="A60" s="270"/>
-      <c r="B60" s="270"/>
-      <c r="C60" s="270"/>
-      <c r="D60" s="273"/>
-      <c r="E60" s="273"/>
-      <c r="F60" s="273"/>
+      <c r="A60" s="266"/>
+      <c r="B60" s="266"/>
+      <c r="C60" s="266"/>
+      <c r="D60" s="270"/>
+      <c r="E60" s="270"/>
+      <c r="F60" s="270"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="321" t="str">
@@ -8184,44 +8112,69 @@
       </c>
       <c r="B61" s="321"/>
       <c r="C61" s="321"/>
-      <c r="D61" s="273"/>
-      <c r="E61" s="273"/>
-      <c r="F61" s="273"/>
+      <c r="D61" s="270"/>
+      <c r="E61" s="270"/>
+      <c r="F61" s="270"/>
     </row>
     <row r="62" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A62" s="270"/>
-      <c r="B62" s="270"/>
-      <c r="C62" s="270"/>
-      <c r="D62" s="270"/>
-      <c r="E62" s="270"/>
-      <c r="F62" s="270"/>
+      <c r="A62" s="266"/>
+      <c r="B62" s="266"/>
+      <c r="C62" s="266"/>
+      <c r="D62" s="266"/>
+      <c r="E62" s="266"/>
+      <c r="F62" s="266"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="275"/>
-      <c r="B63" s="275"/>
-      <c r="C63" s="275"/>
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
-      <c r="F63" s="276"/>
+      <c r="A63" s="267"/>
+      <c r="B63" s="267"/>
+      <c r="C63" s="267"/>
+      <c r="D63" s="268"/>
+      <c r="E63" s="268"/>
+      <c r="F63" s="268"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="277"/>
-      <c r="B64" s="277"/>
-      <c r="C64" s="277"/>
-      <c r="D64" s="277"/>
-      <c r="E64" s="277"/>
-      <c r="F64" s="277"/>
+      <c r="A64" s="269"/>
+      <c r="B64" s="269"/>
+      <c r="C64" s="269"/>
+      <c r="D64" s="269"/>
+      <c r="E64" s="269"/>
+      <c r="F64" s="269"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="274"/>
-      <c r="B65" s="274"/>
-      <c r="C65" s="274"/>
-      <c r="D65" s="274"/>
-      <c r="E65" s="274"/>
-      <c r="F65" s="274"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="265"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="265"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F54"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
     <mergeCell ref="H12:P24"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="D65:F65"/>
@@ -8238,31 +8191,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F54"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:B44">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
@@ -8337,25 +8265,25 @@
     </row>
     <row r="12" spans="1:2"/>
     <row r="13" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A13" s="302" t="str">
+      <c r="A13" s="303" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",A14,A15)</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICH tomonidan so’ralayotgan 12 (o'n ikki) oy muddatga, 180 000 000 (yuz sakson million so'm) miqdoridagi mikrokreditning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  MALIBU 2, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, avtotransport vositasini qabul qilishingizni so’rayman:</v>
       </c>
-      <c r="B13" s="302"/>
+      <c r="B13" s="303"/>
     </row>
     <row r="14" spans="1:2" ht="124.5" hidden="1" customHeight="1">
-      <c r="A14" s="302" t="str">
+      <c r="A14" s="303" t="str">
         <f>""&amp;'Общие данные'!B12&amp;" tomonidan so’ralayotgan "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oy muddatga, "&amp;FIXED('Общие данные'!B75,0)&amp;" ("&amp;'Общие данные'!B76&amp;") miqdoridagi "&amp;'Общие данные'!B65&amp;"ning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  "&amp;'Общие данные'!B125&amp;", "&amp;'Общие данные'!B127&amp;", "&amp;'Общие данные'!B130&amp;", "&amp;'Общие данные'!B133&amp;", avtotransport vositasini qabul qilishingizni so’rayman:"</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICH tomonidan so’ralayotgan 12 (o'n ikki) oy muddatga, 180 000 000 (yuz sakson million so'm) miqdoridagi mikrokreditning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  MALIBU 2, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, avtotransport vositasini qabul qilishingizni so’rayman:</v>
       </c>
-      <c r="B14" s="302"/>
+      <c r="B14" s="303"/>
     </row>
     <row r="15" spans="1:2" ht="116.25" hidden="1" customHeight="1">
-      <c r="A15" s="302" t="str">
+      <c r="A15" s="303" t="str">
         <f>""&amp;'Общие данные'!B12&amp;" tomonidan so’ralayotgan "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oy muddatga, "&amp;FIXED('Общие данные'!B75,0)&amp;" ("&amp;'Общие данные'!B76&amp;") miqdoridagi "&amp;'Общие данные'!B65&amp;"ning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  "&amp;'Общие данные'!C126&amp;", umumiy maydoni "&amp;'Общие данные'!C130&amp;" va yashash maydoni "&amp;'Общие данные'!C133&amp;"  "&amp;'Общие данные'!C123&amp;" manzilda joylashgan ko'chmas mulkni qabul qilishingizni so’rayman:"</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICH tomonidan so’ralayotgan 12 (o'n ikki) oy muddatga, 180 000 000 (yuz sakson million so'm) miqdoridagi mikrokreditning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  3 - xonali yakka tartibdagi uy-joy, umumiy maydoni 72.13 kv.m. va yashash maydoni 37.39 kv.m  SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilda joylashgan ko'chmas mulkni qabul qilishingizni so’rayman:</v>
       </c>
-      <c r="B15" s="302"/>
+      <c r="B15" s="303"/>
     </row>
     <row r="16" spans="1:2"/>
     <row r="17" spans="1:2"/>
@@ -8456,14 +8384,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="106.5" customHeight="1"/>
     <row r="2" spans="1:5">
-      <c r="A2" s="266" t="str">
+      <c r="A2" s="274" t="str">
         <f>"GAROV PREDMETI QIYMATINI KELISHISH №"&amp;'Общие данные'!B141&amp;" SONLI DALOLATNOMASI "</f>
         <v xml:space="preserve">GAROV PREDMETI QIYMATINI KELISHISH №1 SONLI DALOLATNOMASI </v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="43"/>
@@ -8485,160 +8413,160 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="9" customHeight="1">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
     </row>
     <row r="6" spans="1:5" ht="87" customHeight="1">
-      <c r="A6" s="239" t="str">
+      <c r="A6" s="236" t="str">
         <f>IF('Общие данные'!B103="avtotransport",'Акт согласования'!A10:E10,'Акт согласования'!A7:E7)</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Nukus filiali boshligi XOJANIYAZOV B. Z., O‘zbekiston Respublikasi fuqarosi va garovga beruvchi QOSIMOV BEKZODBEK ORIFJONOVICH (2-tomon) o’rtalarida, 4 fevral 2025 y.dan №269-NS-sonli Mikrokredit shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikrokredit bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
     </row>
     <row r="7" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A7" s="239" t="str">
+      <c r="A7" s="236" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A9:E9,'Акт согласования'!A8:E8)</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Nukus filiali boshligi XOJANIYAZOV B. Z., va O‘zbekiston Respublikasi fuqarosi  QOSIMOV BEKZODBEK ORIFJONOVICH (2-tomon) va garov egasi SHOUSMANOVA DAVLATXON XXX (3-tomon) 4 fevral 2025 y.dan №269-NS Mikrokredit shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikrokredit bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
     </row>
     <row r="8" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A8" s="239" t="str">
+      <c r="A8" s="236" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", va O‘zbekiston Respublikasi fuqarosi  "&amp;'Общие данные'!B5&amp;" (2-tomon) va garov egasi "&amp;'Общие данные'!C117&amp;" (3-tomon) "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. "</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Nukus filiali boshligi XOJANIYAZOV B. Z., va O‘zbekiston Respublikasi fuqarosi  QOSIMOV BEKZODBEK ORIFJONOVICH (2-tomon) va garov egasi SHOUSMANOVA DAVLATXON XXX (3-tomon) 4 fevral 2025 y.dan №269-NS Mikrokredit shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikrokredit bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
     </row>
     <row r="9" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A9" s="239" t="str">
+      <c r="A9" s="236" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", va O‘zbekiston Respublikasi fuqarosi  "&amp;'Общие данные'!B5&amp;" (2-tomon) va garov egasi "&amp;'Общие данные'!C117&amp;" (3-tomon) "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. "</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Nukus filiali boshligi XOJANIYAZOV B. Z., va O‘zbekiston Respublikasi fuqarosi  QOSIMOV BEKZODBEK ORIFJONOVICH (2-tomon) va garov egasi SHOUSMANOVA DAVLATXON XXX (3-tomon) 4 fevral 2025 y.dan №269-NS Mikrokredit shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikrokredit bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B9" s="239"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
     </row>
     <row r="10" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A10" s="239" t="str">
+      <c r="A10" s="236" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A12:E12,'Акт согласования'!A11:E11)</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Nukus filiali boshligi XOJANIYAZOV B. Z., O‘zbekiston Respublikasi fuqarosi va garovga beruvchi QOSIMOV BEKZODBEK ORIFJONOVICH (2-tomon) o’rtalarida, 4 fevral 2025 y.dan №269-NS-sonli Mikrokredit shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikrokredit bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B10" s="239"/>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
     </row>
     <row r="11" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A11" s="239" t="str">
+      <c r="A11" s="236" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", O‘zbekiston Respublikasi fuqarosi "&amp;'Общие данные'!B5&amp;" (2-tomon) va garovga beruvchi O‘zbekiston Respublikasi fuqarosi "&amp;'Общие данные'!B117&amp;" (3-tomon) o’rtalarida, "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 3-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi."</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Nukus filiali boshligi XOJANIYAZOV B. Z., O‘zbekiston Respublikasi fuqarosi QOSIMOV BEKZODBEK ORIFJONOVICH (2-tomon) va garovga beruvchi O‘zbekiston Respublikasi fuqarosi QOSIMOV BEKZODBEK ORIFJONOVICH (3-tomon) o’rtalarida, 4 fevral 2025 y.dan №269-NS-sonli Mikrokredit shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikrokredit bo‘yicha ta’minot sifatida taqdim etilgan, 3-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
     </row>
     <row r="12" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A12" s="239" t="str">
+      <c r="A12" s="236" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", O‘zbekiston Respublikasi fuqarosi va garovga beruvchi "&amp;'Общие данные'!B5&amp;" (2-tomon) o’rtalarida, "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi."</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Nukus filiali boshligi XOJANIYAZOV B. Z., O‘zbekiston Respublikasi fuqarosi va garovga beruvchi QOSIMOV BEKZODBEK ORIFJONOVICH (2-tomon) o’rtalarida, 4 fevral 2025 y.dan №269-NS-sonli Mikrokredit shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikrokredit bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
     </row>
     <row r="13" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A13" s="239" t="str">
+      <c r="A13" s="236" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!B125&amp;", 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:"</f>
         <v>Garov predmeti sifatida MALIBU 2, 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="239"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
     </row>
     <row r="14" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A14" s="239" t="str">
+      <c r="A14" s="236" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!B125&amp;", 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:"</f>
         <v>Garov predmeti sifatida MALIBU 2, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
     </row>
     <row r="15" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A15" s="239" t="str">
+      <c r="A15" s="236" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A14:E14,'Акт согласования'!A13:E13)</f>
         <v>Garov predmeti sifatida MALIBU 2, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
     </row>
     <row r="16" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A16" s="239" t="str">
+      <c r="A16" s="236" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!C126&amp;", 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:"</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" hidden="1" customHeight="1">
-      <c r="A17" s="239" t="str">
+      <c r="A17" s="236" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!C126&amp;", 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:"</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
     </row>
     <row r="18" spans="1:5" ht="11.25" hidden="1" customHeight="1">
-      <c r="A18" s="239" t="str">
+      <c r="A18" s="236" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A16:E16,'Акт согласования'!A17:E17)</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
     </row>
     <row r="19" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A19" s="239" t="str">
+      <c r="A19" s="236" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",'Акт согласования'!A15:E15,'Акт согласования'!A18:E18)</f>
         <v>Garov predmeti sifatida MALIBU 2, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B19" s="239"/>
-      <c r="C19" s="239"/>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" outlineLevel="1">
       <c r="A20" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="330" t="s">
+      <c r="B20" s="323" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="331"/>
+      <c r="C20" s="324"/>
       <c r="D20" s="42" t="s">
         <v>219</v>
       </c>
@@ -8651,11 +8579,11 @@
         <f>'Общие данные'!B125</f>
         <v>MALIBU 2</v>
       </c>
-      <c r="B21" s="268" t="str">
+      <c r="B21" s="276" t="str">
         <f>'Общие данные'!B127</f>
         <v>Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410</v>
       </c>
-      <c r="C21" s="268"/>
+      <c r="C21" s="276"/>
       <c r="D21" s="20" t="str">
         <f>'Общие данные'!B130</f>
         <v>dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
@@ -8666,44 +8594,44 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="239" t="str">
+      <c r="A22" s="236" t="str">
         <f>"-* avtotransport egasi: "&amp;'Общие данные'!B117&amp;""</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="239"/>
+      <c r="B22" s="236"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
     </row>
     <row r="23" spans="1:5" outlineLevel="1">
-      <c r="A23" s="239" t="str">
+      <c r="A23" s="236" t="str">
         <f>"-* texnik pasport: "&amp;'Общие данные'!B124&amp;""</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A24" s="239" t="str">
+      <c r="A24" s="236" t="str">
         <f>"-* roʻyxatdan oʻtgan manzili/garaj manzili: "&amp;'Общие данные'!B122&amp;""</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="236"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A25" s="239" t="str">
+      <c r="A25" s="236" t="str">
         <f>"-* davlat raqami: "&amp;'Общие данные'!B126&amp;""</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B25" s="239"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="239"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="236"/>
     </row>
     <row r="26" spans="1:5" ht="5.25" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
@@ -8713,10 +8641,10 @@
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" s="40" customFormat="1" ht="14.25" hidden="1" outlineLevel="1">
-      <c r="A27" s="330" t="s">
+      <c r="A27" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="331"/>
+      <c r="B27" s="324"/>
       <c r="C27" s="42" t="s">
         <v>223</v>
       </c>
@@ -8728,10 +8656,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A28" s="328" t="s">
+      <c r="A28" s="329" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="329"/>
+      <c r="B28" s="330"/>
       <c r="C28" s="137">
         <v>0</v>
       </c>
@@ -8744,10 +8672,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A29" s="323" t="s">
+      <c r="A29" s="326" t="s">
         <v>227</v>
       </c>
-      <c r="B29" s="324"/>
+      <c r="B29" s="327"/>
       <c r="C29" s="138">
         <v>34.74</v>
       </c>
@@ -8760,8 +8688,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A30" s="323"/>
-      <c r="B30" s="324"/>
+      <c r="A30" s="326"/>
+      <c r="B30" s="327"/>
       <c r="C30" s="138"/>
       <c r="D30" s="138">
         <v>0</v>
@@ -8772,8 +8700,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A31" s="323"/>
-      <c r="B31" s="324"/>
+      <c r="A31" s="326"/>
+      <c r="B31" s="327"/>
       <c r="C31" s="138"/>
       <c r="D31" s="138">
         <v>0</v>
@@ -8784,8 +8712,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A32" s="323"/>
-      <c r="B32" s="324"/>
+      <c r="A32" s="326"/>
+      <c r="B32" s="327"/>
       <c r="C32" s="138"/>
       <c r="D32" s="138">
         <v>0</v>
@@ -8796,8 +8724,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A33" s="323"/>
-      <c r="B33" s="324"/>
+      <c r="A33" s="326"/>
+      <c r="B33" s="327"/>
       <c r="C33" s="138"/>
       <c r="D33" s="138">
         <v>0</v>
@@ -8808,8 +8736,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A34" s="323"/>
-      <c r="B34" s="324"/>
+      <c r="A34" s="326"/>
+      <c r="B34" s="327"/>
       <c r="C34" s="138"/>
       <c r="D34" s="138"/>
       <c r="E34" s="60">
@@ -8818,8 +8746,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A35" s="323"/>
-      <c r="B35" s="324"/>
+      <c r="A35" s="326"/>
+      <c r="B35" s="327"/>
       <c r="C35" s="138"/>
       <c r="D35" s="138">
         <v>0</v>
@@ -8830,8 +8758,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A36" s="323"/>
-      <c r="B36" s="324"/>
+      <c r="A36" s="326"/>
+      <c r="B36" s="327"/>
       <c r="C36" s="138"/>
       <c r="D36" s="138"/>
       <c r="E36" s="60">
@@ -8840,8 +8768,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A37" s="323"/>
-      <c r="B37" s="324"/>
+      <c r="A37" s="326"/>
+      <c r="B37" s="327"/>
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60">
@@ -8850,10 +8778,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="40" customFormat="1" ht="14.25" hidden="1" outlineLevel="1">
-      <c r="A38" s="332" t="s">
+      <c r="A38" s="331" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="333"/>
+      <c r="B38" s="332"/>
       <c r="C38" s="57">
         <f>SUM(C28:C37)</f>
         <v>34.74</v>
@@ -8868,81 +8796,81 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="40" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="334" t="str">
+      <c r="A39" s="328" t="str">
         <f>"-* ko'chmas mulk egasi: "&amp;'Общие данные'!C117&amp;""</f>
         <v>-* ko'chmas mulk egasi: SHOUSMANOVA DAVLATXON XXX</v>
       </c>
-      <c r="B39" s="334"/>
-      <c r="C39" s="334"/>
-      <c r="D39" s="334"/>
-      <c r="E39" s="334"/>
+      <c r="B39" s="328"/>
+      <c r="C39" s="328"/>
+      <c r="D39" s="328"/>
+      <c r="E39" s="328"/>
     </row>
     <row r="40" spans="1:5" s="40" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="239" t="str">
+      <c r="A40" s="236" t="str">
         <f>"-* reestr raqami: "&amp;'Общие данные'!C124&amp;""</f>
         <v>-* reestr raqami: 1718238/R-A1419303</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="239"/>
-      <c r="E40" s="239"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="236"/>
+      <c r="D40" s="236"/>
+      <c r="E40" s="236"/>
     </row>
     <row r="41" spans="1:5" s="40" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A41" s="239" t="str">
+      <c r="A41" s="236" t="str">
         <f>"-* kadastr raqami: "&amp;'Общие данные'!C127&amp;""</f>
         <v>-* kadastr raqami: №14:13:02:01:03:1179:0006:058 от 16.12.2020 г.</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="236"/>
+      <c r="D41" s="236"/>
+      <c r="E41" s="236"/>
     </row>
     <row r="42" spans="1:5" s="40" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A42" s="239" t="str">
+      <c r="A42" s="236" t="str">
         <f>"-* manzil: "&amp;'Общие данные'!C123&amp;""</f>
         <v>-* manzil: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B42" s="239"/>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
-      <c r="E42" s="239"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="236"/>
+      <c r="E42" s="236"/>
     </row>
     <row r="43" spans="1:5" s="40" customFormat="1" ht="9" customHeight="1" collapsed="1">
-      <c r="A43" s="239"/>
-      <c r="B43" s="239"/>
-      <c r="C43" s="239"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="239"/>
+      <c r="A43" s="236"/>
+      <c r="B43" s="236"/>
+      <c r="C43" s="236"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="236"/>
     </row>
     <row r="44" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A44" s="239" t="str">
+      <c r="A44" s="236" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A46:E46,'Акт согласования'!A45:E45)</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  4 fevral 2025 y.dan №269-NS Mikrokredit shartnomasi bo‘yicha berilgan mikrokredit bo‘yicha  270 000 000,00 (ikki yuz yetmish million so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B44" s="239"/>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
+      <c r="B44" s="236"/>
+      <c r="C44" s="236"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
     </row>
     <row r="45" spans="1:5" ht="66" hidden="1" customHeight="1">
-      <c r="A45" s="239" t="str">
+      <c r="A45" s="236" t="str">
         <f>"Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!B65&amp;" shartnomasi bo‘yicha berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha  "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B137&amp;") so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::"</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  4 fevral 2025 y.dan №269-NS mikrokredit shartnomasi bo‘yicha berilgan mikrokredit bo‘yicha  270 000 000,00 (ikki yuz yetmish million so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
+      <c r="B45" s="236"/>
+      <c r="C45" s="236"/>
+      <c r="D45" s="236"/>
+      <c r="E45" s="236"/>
     </row>
     <row r="46" spans="1:5" ht="58.5" hidden="1" customHeight="1">
-      <c r="A46" s="239" t="str">
+      <c r="A46" s="236" t="str">
         <f>"Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha  "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B137&amp;") so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::"</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  4 fevral 2025 y.dan №269-NS Mikrokredit shartnomasi bo‘yicha berilgan mikrokredit bo‘yicha  270 000 000,00 (ikki yuz yetmish million so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="236"/>
+      <c r="E46" s="236"/>
     </row>
     <row r="47" spans="1:5" ht="51.75" customHeight="1" outlineLevel="1">
       <c r="A47" s="42" t="s">
@@ -9024,7 +8952,7 @@
         <f>E28</f>
         <v>37.39</v>
       </c>
-      <c r="E51" s="325" t="str">
+      <c r="E51" s="333" t="str">
         <f>""&amp;FIXED('Общие данные'!C136,2)&amp;" ("&amp;'Общие данные'!B137&amp;")"</f>
         <v>270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
@@ -9034,7 +8962,7 @@
       <c r="B52" s="137"/>
       <c r="C52" s="137"/>
       <c r="D52" s="137"/>
-      <c r="E52" s="326"/>
+      <c r="E52" s="334"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A53" s="20" t="str">
@@ -9053,7 +8981,7 @@
         <f t="shared" si="2"/>
         <v>34.74</v>
       </c>
-      <c r="E53" s="326"/>
+      <c r="E53" s="334"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A54" s="20">
@@ -9072,7 +9000,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E54" s="326"/>
+      <c r="E54" s="334"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A55" s="20">
@@ -9091,7 +9019,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E55" s="326"/>
+      <c r="E55" s="334"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A56" s="20">
@@ -9110,7 +9038,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E56" s="326"/>
+      <c r="E56" s="334"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A57" s="20">
@@ -9129,7 +9057,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E57" s="326"/>
+      <c r="E57" s="334"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A58" s="20">
@@ -9148,7 +9076,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E58" s="326"/>
+      <c r="E58" s="334"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A59" s="20">
@@ -9167,7 +9095,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E59" s="326"/>
+      <c r="E59" s="334"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A60" s="20">
@@ -9186,7 +9114,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E60" s="326"/>
+      <c r="E60" s="334"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A61" s="20">
@@ -9205,7 +9133,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E61" s="327"/>
+      <c r="E61" s="335"/>
     </row>
     <row r="62" spans="1:5" s="40" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A62" s="42" t="str">
@@ -9237,33 +9165,33 @@
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5" ht="93.75" hidden="1" customHeight="1">
-      <c r="A64" s="239" t="str">
+      <c r="A64" s="236" t="str">
         <f>"“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::"&amp;'Данные для послед. Залога'!W2&amp;""</f>
         <v>“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::- №5 от 11 yanvar 2021 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и TULYAGANOV XODJIAKBAR IRGASHEVICH, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.- №386 от 6 noyabr 2019 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и YUNUSOVA ZALOXAT MIRSULTANOVNA, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.- №33 от 21 yanvar 2021 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и YUNUSOVA ZALOXAT MIRSULTANOVNA, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.00000000000000000</v>
       </c>
-      <c r="B64" s="239"/>
-      <c r="C64" s="239"/>
-      <c r="D64" s="239"/>
-      <c r="E64" s="239"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="236"/>
+      <c r="D64" s="236"/>
+      <c r="E64" s="236"/>
     </row>
     <row r="65" spans="1:5" ht="42" customHeight="1">
-      <c r="A65" s="239" t="s">
+      <c r="A65" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="B65" s="239"/>
-      <c r="C65" s="239"/>
-      <c r="D65" s="239"/>
-      <c r="E65" s="239"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="236"/>
+      <c r="D65" s="236"/>
+      <c r="E65" s="236"/>
     </row>
     <row r="66" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A66" s="239" t="str">
+      <c r="A66" s="236" t="str">
         <f>"Shunday qilib, garov predmetining kelishilgan garov qiymati  "&amp;FIXED('Общие данные'!B136)&amp;" ("&amp;'Общие данные'!B137&amp;") so‘mni tashkil etadi."</f>
         <v>Shunday qilib, garov predmetining kelishilgan garov qiymati  270 000 000,00 (ikki yuz yetmish million so'm) so‘mni tashkil etadi.</v>
       </c>
-      <c r="B66" s="239"/>
-      <c r="C66" s="239"/>
-      <c r="D66" s="239"/>
-      <c r="E66" s="239"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="236"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="236"/>
     </row>
     <row r="67" spans="1:5" ht="35.25" hidden="1" customHeight="1">
       <c r="A67" s="22"/>
@@ -9288,22 +9216,22 @@
       <c r="E68" s="25"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="240" t="str">
+      <c r="A69" s="246" t="str">
         <f>'Общие данные'!B148</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="B69" s="240"/>
-      <c r="C69" s="240"/>
+      <c r="B69" s="246"/>
+      <c r="C69" s="246"/>
       <c r="D69" s="209"/>
       <c r="E69" s="209"/>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1">
-      <c r="A70" s="240" t="str">
+      <c r="A70" s="246" t="str">
         <f>""&amp;'Общие данные'!A150&amp;"i"</f>
         <v>Nukus filiali boshligii</v>
       </c>
-      <c r="B70" s="240"/>
-      <c r="C70" s="240"/>
+      <c r="B70" s="246"/>
+      <c r="C70" s="246"/>
       <c r="D70" s="321" t="str">
         <f>"_______________   "&amp;'Общие данные'!B150&amp;""</f>
         <v>_______________   XOJANIYAZOV B. Z.</v>
@@ -9325,33 +9253,33 @@
       <c r="E72" s="65"/>
     </row>
     <row r="73" spans="1:5" hidden="1">
-      <c r="A73" s="240" t="s">
+      <c r="A73" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="240"/>
-      <c r="C73" s="240"/>
+      <c r="B73" s="246"/>
+      <c r="C73" s="246"/>
       <c r="D73" s="65"/>
       <c r="E73" s="65"/>
     </row>
     <row r="74" spans="1:5" hidden="1">
-      <c r="A74" s="240" t="str">
+      <c r="A74" s="246" t="str">
         <f>'Общие данные'!B148</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="B74" s="240"/>
-      <c r="C74" s="240"/>
-      <c r="D74" s="240" t="str">
+      <c r="B74" s="246"/>
+      <c r="C74" s="246"/>
+      <c r="D74" s="246" t="str">
         <f>"_______________   "&amp;'Общие данные'!B159&amp;""</f>
         <v>_______________   Mominov B.X.</v>
       </c>
-      <c r="E74" s="240"/>
+      <c r="E74" s="246"/>
     </row>
     <row r="75" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A75" s="240"/>
-      <c r="B75" s="240"/>
-      <c r="C75" s="240"/>
-      <c r="D75" s="240"/>
-      <c r="E75" s="240"/>
+      <c r="A75" s="246"/>
+      <c r="B75" s="246"/>
+      <c r="C75" s="246"/>
+      <c r="D75" s="246"/>
+      <c r="E75" s="246"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="321" t="s">
@@ -9359,15 +9287,15 @@
       </c>
       <c r="B76" s="321"/>
       <c r="C76" s="321"/>
-      <c r="D76" s="240"/>
-      <c r="E76" s="240"/>
+      <c r="D76" s="246"/>
+      <c r="E76" s="246"/>
     </row>
     <row r="77" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A77" s="240" t="s">
+      <c r="A77" s="246" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="240"/>
-      <c r="C77" s="240"/>
+      <c r="B77" s="246"/>
+      <c r="C77" s="246"/>
       <c r="D77" s="321" t="str">
         <f>"_______________  "&amp;'Общие данные'!B7&amp;""</f>
         <v>_______________  QOSIMOV  B.O.</v>
@@ -9375,14 +9303,14 @@
       <c r="E77" s="321"/>
     </row>
     <row r="78" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A78" s="240"/>
-      <c r="B78" s="240"/>
-      <c r="C78" s="240"/>
-      <c r="D78" s="335" t="str">
+      <c r="A78" s="246"/>
+      <c r="B78" s="246"/>
+      <c r="C78" s="246"/>
+      <c r="D78" s="325" t="str">
         <f>IF('Общие данные'!B93="да","",'Общие данные'!B118)</f>
         <v>QOSIMOV  B.O.</v>
       </c>
-      <c r="E78" s="335"/>
+      <c r="E78" s="325"/>
     </row>
     <row r="79" spans="1:5" ht="17.25" customHeight="1">
       <c r="A79" s="321" t="str">
@@ -9391,19 +9319,19 @@
       </c>
       <c r="B79" s="321"/>
       <c r="C79" s="321"/>
-      <c r="D79" s="335" t="str">
+      <c r="D79" s="325" t="str">
         <f>IF('Общие данные'!B93="ha","",'Общие данные'!C118)</f>
         <v/>
       </c>
-      <c r="E79" s="335"/>
+      <c r="E79" s="325"/>
     </row>
     <row r="80" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A80" s="240" t="str">
+      <c r="A80" s="246" t="str">
         <f>+IF('Общие данные'!B93="ha"," ","O'zbekiston Respublikasi fuqarosi")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B80" s="240"/>
-      <c r="C80" s="240"/>
+      <c r="B80" s="246"/>
+      <c r="C80" s="246"/>
       <c r="D80" s="321" t="str">
         <f>IF('Общие данные'!B93="yo’q","_______________  "&amp;'Общие данные'!B112&amp;"","")</f>
         <v/>
@@ -9413,43 +9341,47 @@
     <row r="81" spans="1:5" ht="79.5" hidden="1" customHeight="1">
       <c r="A81" s="65"/>
       <c r="B81" s="65"/>
-      <c r="C81" s="240" t="str">
+      <c r="C81" s="246" t="str">
         <f>+IF('Общие данные'!B93="ha"," ",'заявление залогодателя'!A20)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D81" s="240"/>
-      <c r="E81" s="240"/>
+      <c r="D81" s="246"/>
+      <c r="E81" s="246"/>
     </row>
     <row r="82" spans="1:5" ht="6.75" customHeight="1">
-      <c r="D82" s="275"/>
-      <c r="E82" s="275"/>
+      <c r="D82" s="267"/>
+      <c r="E82" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="E51:E61"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
@@ -9466,34 +9398,30 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C81:E81"/>
     <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="E51:E61"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9511,7 +9439,7 @@
   </sheetPr>
   <dimension ref="A3:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -9527,135 +9455,135 @@
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="273" t="str">
+      <c r="A4" s="270" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" ijrochi direktorining"&amp;'Общие данные'!B165&amp;"dagi "&amp;'Общие данные'!B164&amp;"-sonli buyrug‘i"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktorining4 fevral 2025 y.dagi №269-NS-sonli buyrug‘i</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="273"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
+      <c r="A5" s="270"/>
+      <c r="B5" s="270"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="273"/>
-      <c r="B6" s="273"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
+      <c r="A6" s="270"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="239"/>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
+      <c r="A7" s="236"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
     </row>
     <row r="8" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A8" s="239" t="str">
+      <c r="A8" s="236" t="str">
         <f>"Men, Abduraximov N.K. "&amp;'Общие данные'!B147&amp;" ijrochi direktori, jismoniy shaxs "&amp;'Общие данные'!B10&amp;"ga quyidagi shartlarda "&amp;'Общие данные'!B65&amp;" berishni buyuraman:"</f>
         <v>Men, Abduraximov N.K. «CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktori, jismoniy shaxs QOSIMOV BEKZODBEK ORIFJONOVICHga quyidagi shartlarda mikrokredit berishni buyuraman:</v>
       </c>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A9" s="239" t="str">
+      <c r="A9" s="236" t="str">
         <f>'Кредитная заявка'!A13:D13</f>
         <v>Mikrokredit summasi: 180 000 000,00 (yuz sakson million so'm) so'm.</v>
       </c>
-      <c r="B9" s="239"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1">
-      <c r="A10" s="239" t="str">
+      <c r="A10" s="236" t="str">
         <f>'Кредитная заявка'!A14:D14</f>
         <v>Mikrokredit muddati: 12 (o'n ikki) oy.</v>
       </c>
-      <c r="B10" s="239"/>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="239" t="str">
+      <c r="A11" s="236" t="str">
         <f>'Кредитная заявка'!A15:D15</f>
         <v>Mikrokreditdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A12" s="239" t="str">
+      <c r="A12" s="236" t="str">
         <f>'Кредитная заявка'!A16:D16</f>
         <v>Mikrokredit bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="239" t="str">
+      <c r="A13" s="236" t="str">
         <f>'Кредитная заявка'!A17:D17</f>
         <v xml:space="preserve"> - mikrokredit shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="239"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
     </row>
     <row r="14" spans="1:5" hidden="1">
-      <c r="A14" s="239" t="str">
+      <c r="A14" s="236" t="str">
         <f>'Кредитная заявка'!A20:D20</f>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
     </row>
     <row r="15" spans="1:5" ht="45.75" hidden="1" customHeight="1">
-      <c r="A15" s="239" t="str">
+      <c r="A15" s="236" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",'Приказ на сделку'!A14:E14,'Приказ на сделку'!A13:E13)</f>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
     </row>
     <row r="16" spans="1:5" ht="50.25" hidden="1" customHeight="1">
-      <c r="A16" s="239" t="str">
+      <c r="A16" s="236" t="str">
         <f>""&amp;'Общие данные'!C117&amp;"ga tegishli "&amp;'Общие данные'!C126&amp;" ko'rinishidagi ko'chmas mulkni quyidagi ma'lumotlarga muvofiq  garovga qabul qilinsin:"</f>
         <v>SHOUSMANOVA DAVLATXON XXXga tegishli 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulkni quyidagi ma'lumotlarga muvofiq  garovga qabul qilinsin:</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
     </row>
     <row r="17" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A17" s="239" t="str">
+      <c r="A17" s="236" t="str">
         <f>""&amp;'Общие данные'!B117&amp;"ga tegishli "&amp;'Общие данные'!B125&amp;" ko'rinishidagi transport vositasini quyidagi ma'lumotlarga muvofiq garovga qabul qilinsin:"</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli MALIBU 2 ko'rinishidagi transport vositasini quyidagi ma'lumotlarga muvofiq garovga qabul qilinsin:</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
     </row>
     <row r="18" spans="1:5" s="40" customFormat="1" ht="60" customHeight="1" outlineLevel="1">
       <c r="A18" s="42" t="str">
@@ -9702,51 +9630,51 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="239" t="str">
+      <c r="A20" s="236" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="239"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="239" t="str">
+      <c r="A21" s="236" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B21" s="239"/>
-      <c r="C21" s="239"/>
-      <c r="D21" s="239"/>
-      <c r="E21" s="239"/>
+      <c r="B21" s="236"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
     </row>
     <row r="22" spans="1:5" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A22" s="239" t="str">
+      <c r="A22" s="236" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="239"/>
+      <c r="B22" s="236"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" outlineLevel="1">
-      <c r="A23" s="239" t="str">
+      <c r="A23" s="236" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="239"/>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
+      <c r="A24" s="236"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="236"/>
     </row>
     <row r="25" spans="1:5" s="40" customFormat="1" ht="41.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A25" s="42" t="s">
@@ -9783,7 +9711,7 @@
         <f>'Акт согласования'!D51</f>
         <v>37.39</v>
       </c>
-      <c r="E26" s="268" t="str">
+      <c r="E26" s="276" t="str">
         <f>'Акт согласования'!E51</f>
         <v>270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
@@ -9805,7 +9733,7 @@
         <f>'Акт согласования'!D52</f>
         <v>0</v>
       </c>
-      <c r="E27" s="268"/>
+      <c r="E27" s="276"/>
     </row>
     <row r="28" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A28" s="20" t="str">
@@ -9824,7 +9752,7 @@
         <f>'Акт согласования'!D53</f>
         <v>34.74</v>
       </c>
-      <c r="E28" s="268"/>
+      <c r="E28" s="276"/>
     </row>
     <row r="29" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A29" s="20">
@@ -9843,7 +9771,7 @@
         <f>'Акт согласования'!D54</f>
         <v>0</v>
       </c>
-      <c r="E29" s="268"/>
+      <c r="E29" s="276"/>
     </row>
     <row r="30" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A30" s="20">
@@ -9862,7 +9790,7 @@
         <f>'Акт согласования'!D55</f>
         <v>0</v>
       </c>
-      <c r="E30" s="268"/>
+      <c r="E30" s="276"/>
     </row>
     <row r="31" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A31" s="20">
@@ -9881,7 +9809,7 @@
         <f>'Акт согласования'!D56</f>
         <v>0</v>
       </c>
-      <c r="E31" s="268"/>
+      <c r="E31" s="276"/>
     </row>
     <row r="32" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A32" s="20">
@@ -9900,7 +9828,7 @@
         <f>'Акт согласования'!D57</f>
         <v>0</v>
       </c>
-      <c r="E32" s="268"/>
+      <c r="E32" s="276"/>
     </row>
     <row r="33" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A33" s="20">
@@ -9919,7 +9847,7 @@
         <f>'Акт согласования'!D58</f>
         <v>0</v>
       </c>
-      <c r="E33" s="268"/>
+      <c r="E33" s="276"/>
     </row>
     <row r="34" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A34" s="20">
@@ -9938,7 +9866,7 @@
         <f>'Акт согласования'!D59</f>
         <v>0</v>
       </c>
-      <c r="E34" s="268"/>
+      <c r="E34" s="276"/>
     </row>
     <row r="35" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A35" s="20">
@@ -9957,7 +9885,7 @@
         <f>'Акт согласования'!D60</f>
         <v>0</v>
       </c>
-      <c r="E35" s="268"/>
+      <c r="E35" s="276"/>
     </row>
     <row r="36" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A36" s="20">
@@ -9976,7 +9904,7 @@
         <f>'Акт согласования'!D61</f>
         <v>0</v>
       </c>
-      <c r="E36" s="268"/>
+      <c r="E36" s="276"/>
     </row>
     <row r="37" spans="1:5" s="40" customFormat="1" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A37" s="42" t="str">
@@ -10001,65 +9929,65 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="40" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A38" s="239" t="str">
+      <c r="A38" s="236" t="str">
         <f>'Акт согласования'!A39:E39</f>
         <v>-* ko'chmas mulk egasi: SHOUSMANOVA DAVLATXON XXX</v>
       </c>
-      <c r="B38" s="239"/>
-      <c r="C38" s="239"/>
-      <c r="D38" s="239"/>
-      <c r="E38" s="239"/>
+      <c r="B38" s="236"/>
+      <c r="C38" s="236"/>
+      <c r="D38" s="236"/>
+      <c r="E38" s="236"/>
     </row>
     <row r="39" spans="1:5" s="40" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A39" s="239" t="str">
+      <c r="A39" s="236" t="str">
         <f>'Акт согласования'!A40:E40</f>
         <v>-* reestr raqami: 1718238/R-A1419303</v>
       </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="239"/>
-      <c r="D39" s="239"/>
-      <c r="E39" s="239"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="236"/>
+      <c r="D39" s="236"/>
+      <c r="E39" s="236"/>
     </row>
     <row r="40" spans="1:5" s="40" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A40" s="239" t="str">
+      <c r="A40" s="236" t="str">
         <f>'Акт согласования'!A41:E41</f>
         <v>-* kadastr raqami: №14:13:02:01:03:1179:0006:058 от 16.12.2020 г.</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="239"/>
-      <c r="E40" s="239"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="236"/>
+      <c r="D40" s="236"/>
+      <c r="E40" s="236"/>
     </row>
     <row r="41" spans="1:5" s="40" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A41" s="239" t="str">
+      <c r="A41" s="236" t="str">
         <f>'Акт согласования'!A42:E42</f>
         <v>-* manzil: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="236"/>
+      <c r="D41" s="236"/>
+      <c r="E41" s="236"/>
     </row>
     <row r="42" spans="1:5" s="40" customFormat="1" collapsed="1">
-      <c r="A42" s="239"/>
-      <c r="B42" s="239"/>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
-      <c r="E42" s="239"/>
+      <c r="A42" s="236"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="236"/>
+      <c r="E42" s="236"/>
     </row>
     <row r="43" spans="1:5" s="40" customFormat="1">
-      <c r="A43" s="239"/>
-      <c r="B43" s="239"/>
-      <c r="C43" s="239"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="239"/>
+      <c r="A43" s="236"/>
+      <c r="B43" s="236"/>
+      <c r="C43" s="236"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="236"/>
     </row>
     <row r="44" spans="1:5" s="40" customFormat="1" hidden="1">
-      <c r="A44" s="239"/>
-      <c r="B44" s="239"/>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
+      <c r="A44" s="236"/>
+      <c r="B44" s="236"/>
+      <c r="C44" s="236"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
     </row>
     <row r="45" spans="1:5" s="40" customFormat="1" ht="14.25" hidden="1">
       <c r="A45" s="59"/>
@@ -10069,11 +9997,11 @@
       <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:5" hidden="1">
-      <c r="A46" s="239"/>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
+      <c r="A46" s="236"/>
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="236"/>
+      <c r="E46" s="236"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="321" t="str">
@@ -10097,54 +10025,64 @@
       <c r="E48" s="336"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="239"/>
-      <c r="B49" s="239"/>
-      <c r="C49" s="239"/>
-      <c r="D49" s="239"/>
-      <c r="E49" s="239"/>
+      <c r="A49" s="236"/>
+      <c r="B49" s="236"/>
+      <c r="C49" s="236"/>
+      <c r="D49" s="236"/>
+      <c r="E49" s="236"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="239"/>
-      <c r="B50" s="239"/>
-      <c r="C50" s="239"/>
-      <c r="D50" s="239"/>
-      <c r="E50" s="239"/>
+      <c r="A50" s="236"/>
+      <c r="B50" s="236"/>
+      <c r="C50" s="236"/>
+      <c r="D50" s="236"/>
+      <c r="E50" s="236"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="239"/>
-      <c r="B51" s="239"/>
-      <c r="C51" s="239"/>
-      <c r="D51" s="239"/>
-      <c r="E51" s="239"/>
+      <c r="A51" s="236"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="236"/>
+      <c r="D51" s="236"/>
+      <c r="E51" s="236"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="239"/>
-      <c r="B52" s="239"/>
-      <c r="C52" s="239"/>
-      <c r="D52" s="239"/>
-      <c r="E52" s="239"/>
+      <c r="A52" s="236"/>
+      <c r="B52" s="236"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236"/>
+      <c r="E52" s="236"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="239"/>
-      <c r="B53" s="239"/>
-      <c r="C53" s="239"/>
-      <c r="D53" s="239"/>
-      <c r="E53" s="239"/>
+      <c r="A53" s="236"/>
+      <c r="B53" s="236"/>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
+      <c r="E53" s="236"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="239"/>
-      <c r="B54" s="239"/>
-      <c r="C54" s="239"/>
-      <c r="D54" s="239"/>
-      <c r="E54" s="239"/>
+      <c r="A54" s="236"/>
+      <c r="B54" s="236"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
+      <c r="E54" s="236"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="E26:E36"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A4:E6"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A38:E38"/>
@@ -10161,21 +10099,11 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="E26:E36"/>
-    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -10206,22 +10134,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="62.25" customHeight="1">
-      <c r="B2" s="342" t="str">
+      <c r="B2" s="347" t="str">
         <f>'Общие данные'!B148</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="344"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="349"/>
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="337"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="338"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="341"/>
       <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" ht="8.25" customHeight="1">
@@ -10270,42 +10198,42 @@
       <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="338"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="341"/>
       <c r="G10" s="45"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="277"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="277"/>
-      <c r="F11" s="338"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="341"/>
       <c r="G11" s="45"/>
     </row>
     <row r="12" spans="2:7" ht="135" customHeight="1">
-      <c r="B12" s="345" t="str">
+      <c r="B12" s="350" t="str">
         <f>'Общие данные'!B5</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="C12" s="346"/>
-      <c r="D12" s="346"/>
-      <c r="E12" s="346"/>
-      <c r="F12" s="347"/>
+      <c r="C12" s="351"/>
+      <c r="D12" s="351"/>
+      <c r="E12" s="351"/>
+      <c r="F12" s="352"/>
       <c r="G12" s="46"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="337"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="338"/>
+      <c r="B13" s="340"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="341"/>
       <c r="G13" s="45"/>
     </row>
     <row r="14" spans="2:7">
@@ -10341,106 +10269,106 @@
       <c r="G17" s="45"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="337"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="338"/>
+      <c r="B18" s="340"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="341"/>
       <c r="G18" s="45"/>
     </row>
     <row r="19" spans="2:7" ht="20.25">
-      <c r="B19" s="339" t="str">
+      <c r="B19" s="344" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" shartnoma "&amp;'Общие данные'!B74&amp;""</f>
         <v>Mikrokredit shartnoma 4 fevral 2025 y.dan №269-NS</v>
       </c>
-      <c r="C19" s="340"/>
-      <c r="D19" s="340"/>
-      <c r="E19" s="340"/>
-      <c r="F19" s="341"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="345"/>
+      <c r="E19" s="345"/>
+      <c r="F19" s="346"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="337"/>
-      <c r="C20" s="277"/>
-      <c r="D20" s="277"/>
-      <c r="E20" s="277"/>
-      <c r="F20" s="338"/>
+      <c r="B20" s="340"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269"/>
+      <c r="E20" s="269"/>
+      <c r="F20" s="341"/>
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="337"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="338"/>
+      <c r="B21" s="340"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="269"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="341"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="337"/>
-      <c r="C22" s="277"/>
-      <c r="D22" s="277"/>
-      <c r="E22" s="277"/>
-      <c r="F22" s="338"/>
+      <c r="B22" s="340"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="269"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="341"/>
       <c r="G22" s="45"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="337"/>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="277"/>
-      <c r="F23" s="338"/>
+      <c r="B23" s="340"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="269"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="341"/>
       <c r="G23" s="45"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="351" t="str">
+      <c r="B24" s="342" t="str">
         <f>" Foiz stavkasi: "&amp;'Общие данные'!B85&amp;"%"</f>
         <v xml:space="preserve"> Foiz stavkasi: 60%</v>
       </c>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="352"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="343"/>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
-      <c r="B25" s="351" t="str">
+      <c r="B25" s="342" t="str">
         <f>" "&amp;'Общие данные'!C64&amp;" muddati: "&amp;'Общие данные'!B81&amp;" oy"</f>
         <v xml:space="preserve"> Mikrokredit muddati: 12 oy</v>
       </c>
-      <c r="C25" s="244"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="352"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="238"/>
+      <c r="F25" s="343"/>
       <c r="G25" s="45"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="351" t="str">
+      <c r="B26" s="342" t="str">
         <f>" "&amp;'Общие данные'!C64&amp;" miqdori: "&amp;FIXED('Общие данные'!B75,2)&amp;" so'm"</f>
         <v xml:space="preserve"> Mikrokredit miqdori: 180 000 000,00 so'm</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="352"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="238"/>
+      <c r="F26" s="343"/>
       <c r="G26" s="45"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="337"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="338"/>
+      <c r="B27" s="340"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="269"/>
+      <c r="F27" s="341"/>
       <c r="G27" s="45"/>
     </row>
     <row r="28" spans="2:7" hidden="1">
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="337"/>
-      <c r="C29" s="277"/>
-      <c r="D29" s="277"/>
-      <c r="E29" s="277"/>
-      <c r="F29" s="338"/>
+      <c r="B29" s="340"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="269"/>
+      <c r="F29" s="341"/>
       <c r="G29" s="45"/>
     </row>
     <row r="30" spans="2:7" ht="12.75" customHeight="1">
@@ -10524,34 +10452,43 @@
       <c r="G39" s="45"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B40" s="348" t="str">
+      <c r="B40" s="337" t="str">
         <f>"Toshkent sh., "&amp;'Общие данные'!B70&amp;""</f>
         <v>Toshkent sh., 4 fevral 2025 y.</v>
       </c>
-      <c r="C40" s="349"/>
-      <c r="D40" s="349"/>
-      <c r="E40" s="349"/>
-      <c r="F40" s="350"/>
+      <c r="C40" s="338"/>
+      <c r="D40" s="338"/>
+      <c r="E40" s="338"/>
+      <c r="F40" s="339"/>
       <c r="G40" s="45"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="277"/>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
-      <c r="E41" s="277"/>
-      <c r="F41" s="277"/>
+      <c r="B41" s="269"/>
+      <c r="C41" s="269"/>
+      <c r="D41" s="269"/>
+      <c r="E41" s="269"/>
+      <c r="F41" s="269"/>
       <c r="G41" s="45"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="277"/>
-      <c r="C42" s="277"/>
-      <c r="D42" s="277"/>
-      <c r="E42" s="277"/>
-      <c r="F42" s="277"/>
+      <c r="B42" s="269"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="269"/>
+      <c r="E42" s="269"/>
+      <c r="F42" s="269"/>
       <c r="G42" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -10563,15 +10500,6 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10671,44 +10599,44 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="355" t="str">
+      <c r="A13" s="358" t="str">
         <f>'Приказ на сделку'!A20:E20</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B13" s="355"/>
-      <c r="C13" s="355"/>
-      <c r="D13" s="355"/>
-      <c r="E13" s="355"/>
+      <c r="B13" s="358"/>
+      <c r="C13" s="358"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="358"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="355" t="str">
+      <c r="A14" s="358" t="str">
         <f>'Приказ на сделку'!A21:E21</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B14" s="355"/>
-      <c r="C14" s="355"/>
-      <c r="D14" s="355"/>
-      <c r="E14" s="355"/>
+      <c r="B14" s="358"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="358"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="355" t="str">
+      <c r="A15" s="358" t="str">
         <f>'Приказ на сделку'!A22:E22</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B15" s="355"/>
-      <c r="C15" s="355"/>
-      <c r="D15" s="355"/>
-      <c r="E15" s="355"/>
+      <c r="B15" s="358"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="358"/>
+      <c r="E15" s="358"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="355" t="str">
+      <c r="A16" s="358" t="str">
         <f>'Приказ на сделку'!A23:E23</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B16" s="355"/>
-      <c r="C16" s="355"/>
-      <c r="D16" s="355"/>
-      <c r="E16" s="355"/>
+      <c r="B16" s="358"/>
+      <c r="C16" s="358"/>
+      <c r="D16" s="358"/>
+      <c r="E16" s="358"/>
     </row>
     <row r="17" spans="1:5" ht="3" customHeight="1"/>
     <row r="19" spans="1:5" ht="59.25" hidden="1" customHeight="1">
@@ -10750,7 +10678,7 @@
         <f>'Акт согласования'!D51</f>
         <v>37.39</v>
       </c>
-      <c r="E20" s="325" t="str">
+      <c r="E20" s="333" t="str">
         <f>""&amp;FIXED('Общие данные'!C136,2)&amp;" ("&amp;'Общие данные'!C137&amp;")"</f>
         <v>270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
@@ -10772,7 +10700,7 @@
         <f>'Акт согласования'!D52</f>
         <v>0</v>
       </c>
-      <c r="E21" s="326"/>
+      <c r="E21" s="334"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A22" s="20" t="str">
@@ -10791,7 +10719,7 @@
         <f>'Акт согласования'!D53</f>
         <v>34.74</v>
       </c>
-      <c r="E22" s="326"/>
+      <c r="E22" s="334"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A23" s="20">
@@ -10810,7 +10738,7 @@
         <f>'Акт согласования'!D54</f>
         <v>0</v>
       </c>
-      <c r="E23" s="326"/>
+      <c r="E23" s="334"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A24" s="20">
@@ -10829,7 +10757,7 @@
         <f>'Акт согласования'!D55</f>
         <v>0</v>
       </c>
-      <c r="E24" s="326"/>
+      <c r="E24" s="334"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="20">
@@ -10848,7 +10776,7 @@
         <f>'Акт согласования'!D56</f>
         <v>0</v>
       </c>
-      <c r="E25" s="326"/>
+      <c r="E25" s="334"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A26" s="20">
@@ -10867,7 +10795,7 @@
         <f>'Акт согласования'!D57</f>
         <v>0</v>
       </c>
-      <c r="E26" s="326"/>
+      <c r="E26" s="334"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A27" s="20">
@@ -10886,7 +10814,7 @@
         <f>'Акт согласования'!D58</f>
         <v>0</v>
       </c>
-      <c r="E27" s="326"/>
+      <c r="E27" s="334"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A28" s="20">
@@ -10905,7 +10833,7 @@
         <f>'Акт согласования'!D59</f>
         <v>0</v>
       </c>
-      <c r="E28" s="326"/>
+      <c r="E28" s="334"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A29" s="20">
@@ -10924,7 +10852,7 @@
         <f>'Акт согласования'!D60</f>
         <v>0</v>
       </c>
-      <c r="E29" s="326"/>
+      <c r="E29" s="334"/>
     </row>
     <row r="30" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A30" s="20">
@@ -10943,7 +10871,7 @@
         <f>'Акт согласования'!D61</f>
         <v>0</v>
       </c>
-      <c r="E30" s="327"/>
+      <c r="E30" s="335"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A31" s="20" t="str">
@@ -11015,14 +10943,14 @@
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" s="157" customFormat="1" ht="51" customHeight="1">
-      <c r="A37" s="353" t="str">
+      <c r="A37" s="357" t="str">
         <f>'Акт согласования'!A64:E64</f>
         <v>“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::- №5 от 11 yanvar 2021 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и TULYAGANOV XODJIAKBAR IRGASHEVICH, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.- №386 от 6 noyabr 2019 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и YUNUSOVA ZALOXAT MIRSULTANOVNA, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.- №33 от 21 yanvar 2021 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и YUNUSOVA ZALOXAT MIRSULTANOVNA, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.00000000000000000</v>
       </c>
-      <c r="B37" s="353"/>
-      <c r="C37" s="353"/>
-      <c r="D37" s="353"/>
-      <c r="E37" s="353"/>
+      <c r="B37" s="357"/>
+      <c r="C37" s="357"/>
+      <c r="D37" s="357"/>
+      <c r="E37" s="357"/>
     </row>
     <row r="38" spans="1:5" ht="40.5" customHeight="1">
       <c r="A38" s="354" t="str">
@@ -11045,57 +10973,50 @@
       <c r="E39" s="354"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="357"/>
-      <c r="B40" s="357"/>
-      <c r="C40" s="357"/>
-      <c r="D40" s="357"/>
-      <c r="E40" s="357"/>
+      <c r="A40" s="355"/>
+      <c r="B40" s="355"/>
+      <c r="C40" s="355"/>
+      <c r="D40" s="355"/>
+      <c r="E40" s="355"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="358" t="s">
+      <c r="A41" s="356" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="358"/>
-      <c r="C41" s="358"/>
-      <c r="D41" s="358"/>
-      <c r="E41" s="358"/>
+      <c r="B41" s="356"/>
+      <c r="C41" s="356"/>
+      <c r="D41" s="356"/>
+      <c r="E41" s="356"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="357"/>
-      <c r="B42" s="357"/>
-      <c r="C42" s="357"/>
-      <c r="D42" s="357"/>
-      <c r="E42" s="357"/>
+      <c r="A42" s="355"/>
+      <c r="B42" s="355"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="355"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="358" t="s">
+      <c r="A43" s="356" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="358"/>
-      <c r="C43" s="358"/>
-      <c r="D43" s="358"/>
-      <c r="E43" s="358"/>
+      <c r="B43" s="356"/>
+      <c r="C43" s="356"/>
+      <c r="D43" s="356"/>
+      <c r="E43" s="356"/>
     </row>
     <row r="44" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A44" s="356" t="s">
+      <c r="A44" s="353" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="356"/>
-      <c r="C44" s="356"/>
-      <c r="D44" s="356"/>
+      <c r="B44" s="353"/>
+      <c r="C44" s="353"/>
+      <c r="D44" s="353"/>
       <c r="E44" s="135" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="E20:E30"/>
     <mergeCell ref="A9:E9"/>
@@ -11107,6 +11028,13 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11150,28 +11078,28 @@
       <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="360" t="str">
+      <c r="A2" s="361" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 4 fevral 2025 y.dan №269-NS-sonli  Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha QOSIMOV BEKZODBEK ORIFJONOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="361"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="360"/>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
+      <c r="A3" s="361"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
       <c r="I3" s="34"/>
     </row>
     <row r="5" spans="1:9">
@@ -11185,146 +11113,146 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="359" t="str">
+      <c r="A7" s="360" t="str">
         <f>"      Men, “СLEVER MIKROMOLYA TASHKILOTI” "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!B65&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, “СLEVER MIKROMOLYA TASHKILOTI” Nukus filiali boshligii XOJANIYAZOV B. Z., jismoniy shaxs  QOSIMOV BEKZODBEK ORIFJONOVICH  4 fevral 2025 y.dan №269-NS-sonli mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="359"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="359"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="363" t="s">
+      <c r="A8" s="364" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="363"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
-      <c r="G8" s="363"/>
-      <c r="H8" s="363"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
+      <c r="G8" s="364"/>
+      <c r="H8" s="364"/>
     </row>
     <row r="9" spans="1:9" s="172" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="364" t="s">
+      <c r="A9" s="365" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="365"/>
-      <c r="C9" s="364" t="s">
+      <c r="B9" s="366"/>
+      <c r="C9" s="365" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="365"/>
-      <c r="E9" s="366" t="s">
+      <c r="D9" s="366"/>
+      <c r="E9" s="367" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="366"/>
-      <c r="G9" s="366" t="s">
+      <c r="F9" s="367"/>
+      <c r="G9" s="367" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="366"/>
+      <c r="H9" s="367"/>
     </row>
     <row r="10" spans="1:9" s="170" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="367" t="str">
+      <c r="A10" s="368" t="str">
         <f>'Общие данные'!B125</f>
         <v>MALIBU 2</v>
       </c>
-      <c r="B10" s="367"/>
-      <c r="C10" s="367" t="str">
+      <c r="B10" s="368"/>
+      <c r="C10" s="368" t="str">
         <f>'Общие данные'!B127</f>
         <v>Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410</v>
       </c>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367" t="str">
+      <c r="D10" s="368"/>
+      <c r="E10" s="368" t="str">
         <f>'Общие данные'!B130</f>
         <v>dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367" t="str">
+      <c r="F10" s="368"/>
+      <c r="G10" s="368" t="str">
         <f>'Общие данные'!B133</f>
         <v>rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022</v>
       </c>
-      <c r="H10" s="367"/>
+      <c r="H10" s="368"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="368" t="str">
+      <c r="A11" s="359" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B11" s="368"/>
-      <c r="C11" s="368"/>
-      <c r="D11" s="368"/>
-      <c r="E11" s="368"/>
-      <c r="F11" s="368"/>
-      <c r="G11" s="368"/>
-      <c r="H11" s="368"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="368" t="str">
+      <c r="A12" s="359" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B12" s="368"/>
-      <c r="C12" s="368"/>
-      <c r="D12" s="368"/>
-      <c r="E12" s="368"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="368"/>
-      <c r="H12" s="368"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
+      <c r="H12" s="359"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="368" t="str">
+      <c r="A13" s="359" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B13" s="368"/>
-      <c r="C13" s="368"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
-      <c r="F13" s="368"/>
-      <c r="G13" s="368"/>
-      <c r="H13" s="368"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="359"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="368" t="str">
+      <c r="A14" s="359" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="359"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="361" t="str">
+      <c r="A15" s="362" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E48</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
-      <c r="B15" s="361"/>
-      <c r="C15" s="361"/>
-      <c r="D15" s="361"/>
-      <c r="E15" s="361"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="361"/>
-      <c r="H15" s="361"/>
+      <c r="B15" s="362"/>
+      <c r="C15" s="362"/>
+      <c r="D15" s="362"/>
+      <c r="E15" s="362"/>
+      <c r="F15" s="362"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="362"/>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="362" t="s">
+      <c r="A17" s="363" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="362"/>
-      <c r="C17" s="362"/>
-      <c r="D17" s="362"/>
-      <c r="E17" s="362"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="362"/>
+      <c r="B17" s="363"/>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
     </row>
     <row r="21" spans="1:8" s="34" customFormat="1"/>
     <row r="22" spans="1:8" s="34" customFormat="1">
@@ -11365,6 +11293,7 @@
     <row r="30" spans="1:8" s="34" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A2:H3"/>
@@ -11381,7 +11310,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11422,28 +11350,28 @@
       <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="360" t="str">
+      <c r="A2" s="361" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 4 fevral 2025 y.dan №269-NS-sonli  Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha QOSIMOV BEKZODBEK ORIFJONOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="361"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="360"/>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
+      <c r="A3" s="361"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
       <c r="I3" s="34"/>
     </row>
     <row r="5" spans="1:9">
@@ -11456,146 +11384,146 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="359" t="str">
+      <c r="A7" s="360" t="str">
         <f>"      Men, "&amp;'Общие данные'!B147&amp;" "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, «CLEVER MIKROMOLIYA TASHKILOTI» MChJ Nukus filiali boshligii XOJANIYAZOV B. Z., jismoniy shaxs  QOSIMOV BEKZODBEK ORIFJONOVICH  4 fevral 2025 y.dan №269-NS-sonli Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="359"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="359"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="363" t="s">
+      <c r="A8" s="364" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="363"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
-      <c r="G8" s="363"/>
-      <c r="H8" s="363"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
+      <c r="G8" s="364"/>
+      <c r="H8" s="364"/>
     </row>
     <row r="9" spans="1:9" s="172" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="364" t="s">
+      <c r="A9" s="365" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="365"/>
-      <c r="C9" s="364" t="s">
+      <c r="B9" s="366"/>
+      <c r="C9" s="365" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="365"/>
-      <c r="E9" s="366" t="s">
+      <c r="D9" s="366"/>
+      <c r="E9" s="367" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="366"/>
-      <c r="G9" s="366" t="s">
+      <c r="F9" s="367"/>
+      <c r="G9" s="367" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="366"/>
+      <c r="H9" s="367"/>
     </row>
     <row r="10" spans="1:9" s="170" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="367" t="str">
+      <c r="A10" s="368" t="str">
         <f>'Общие данные'!B125</f>
         <v>MALIBU 2</v>
       </c>
-      <c r="B10" s="367"/>
-      <c r="C10" s="367" t="str">
+      <c r="B10" s="368"/>
+      <c r="C10" s="368" t="str">
         <f>'Общие данные'!B127</f>
         <v>Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410</v>
       </c>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367" t="str">
+      <c r="D10" s="368"/>
+      <c r="E10" s="368" t="str">
         <f>'Общие данные'!B130</f>
         <v>dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367" t="str">
+      <c r="F10" s="368"/>
+      <c r="G10" s="368" t="str">
         <f>'Общие данные'!B133</f>
         <v>rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022</v>
       </c>
-      <c r="H10" s="367"/>
+      <c r="H10" s="368"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="368" t="str">
+      <c r="A11" s="359" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B11" s="368"/>
-      <c r="C11" s="368"/>
-      <c r="D11" s="368"/>
-      <c r="E11" s="368"/>
-      <c r="F11" s="368"/>
-      <c r="G11" s="368"/>
-      <c r="H11" s="368"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="368" t="str">
+      <c r="A12" s="359" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B12" s="368"/>
-      <c r="C12" s="368"/>
-      <c r="D12" s="368"/>
-      <c r="E12" s="368"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="368"/>
-      <c r="H12" s="368"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
+      <c r="H12" s="359"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="368" t="str">
+      <c r="A13" s="359" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B13" s="368"/>
-      <c r="C13" s="368"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
-      <c r="F13" s="368"/>
-      <c r="G13" s="368"/>
-      <c r="H13" s="368"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="359"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="368" t="str">
+      <c r="A14" s="359" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="359"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="361" t="str">
+      <c r="A15" s="362" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E48</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
-      <c r="B15" s="361"/>
-      <c r="C15" s="361"/>
-      <c r="D15" s="361"/>
-      <c r="E15" s="361"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="361"/>
-      <c r="H15" s="361"/>
+      <c r="B15" s="362"/>
+      <c r="C15" s="362"/>
+      <c r="D15" s="362"/>
+      <c r="E15" s="362"/>
+      <c r="F15" s="362"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="362"/>
     </row>
     <row r="17" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A17" s="362" t="s">
+      <c r="A17" s="363" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="362"/>
-      <c r="C17" s="362"/>
-      <c r="D17" s="362"/>
-      <c r="E17" s="362"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="362"/>
+      <c r="B17" s="363"/>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
     </row>
     <row r="21" spans="1:8" s="34" customFormat="1"/>
     <row r="22" spans="1:8" s="34" customFormat="1">
@@ -11635,6 +11563,13 @@
     <row r="29" spans="1:8" s="34" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -11645,13 +11580,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11696,10 +11624,10 @@
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
       <c r="D1" s="111"/>
-      <c r="E1" s="248" t="s">
+      <c r="E1" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="248"/>
+      <c r="F1" s="257"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="111"/>
@@ -11725,14 +11653,14 @@
       <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
       <c r="H4" s="114"/>
       <c r="I4" s="114"/>
       <c r="J4" s="114"/>
@@ -11745,25 +11673,25 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="250" t="s">
+      <c r="A6" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="251" t="s">
+      <c r="C6" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="252" t="s">
+      <c r="D6" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
     </row>
     <row r="7" spans="1:22" s="19" customFormat="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
+      <c r="A7" s="259"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="260"/>
       <c r="D7" s="116" t="s">
         <v>12</v>
       </c>
@@ -14497,201 +14425,187 @@
       <c r="F49" s="256"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="257" t="e">
+      <c r="A50" s="253" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="257"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="257" t="e">
+      <c r="B50" s="253"/>
+      <c r="C50" s="253"/>
+      <c r="D50" s="253" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E50" s="257"/>
-      <c r="F50" s="257"/>
+      <c r="E50" s="253"/>
+      <c r="F50" s="253"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A51" s="253" t="e">
+      <c r="A51" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="253"/>
-      <c r="C51" s="253"/>
-      <c r="D51" s="253" t="e">
+      <c r="B51" s="249"/>
+      <c r="C51" s="249"/>
+      <c r="D51" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="253"/>
-      <c r="F51" s="253"/>
+      <c r="E51" s="249"/>
+      <c r="F51" s="249"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="253" t="e">
+      <c r="A52" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="253"/>
-      <c r="C52" s="253"/>
-      <c r="D52" s="253" t="str">
+      <c r="B52" s="249"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="249" t="str">
         <f>"паспорт серии "&amp;'Общие данные'!B16&amp;", "&amp;'Общие данные'!B20&amp;""</f>
         <v>паспорт серии AB7685294, ANDIJON VILOYATI SHAXRIXON TUMANI IIB tomonidan 09.09.2017 yilda berilgan</v>
       </c>
-      <c r="E52" s="253"/>
-      <c r="F52" s="253"/>
+      <c r="E52" s="249"/>
+      <c r="F52" s="249"/>
     </row>
     <row r="53" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A53" s="253" t="e">
+      <c r="A53" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B53" s="253"/>
-      <c r="C53" s="253"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="253"/>
-      <c r="F53" s="253"/>
+      <c r="B53" s="249"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="249"/>
+      <c r="F53" s="249"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="253" t="e">
+      <c r="A54" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B54" s="253"/>
-      <c r="C54" s="253"/>
-      <c r="D54" s="253" t="e">
+      <c r="B54" s="249"/>
+      <c r="C54" s="249"/>
+      <c r="D54" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="253"/>
-      <c r="F54" s="253"/>
+      <c r="E54" s="249"/>
+      <c r="F54" s="249"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="253" t="e">
+      <c r="A55" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B55" s="253"/>
-      <c r="C55" s="253"/>
-      <c r="D55" s="253" t="e">
+      <c r="B55" s="249"/>
+      <c r="C55" s="249"/>
+      <c r="D55" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="253"/>
-      <c r="F55" s="253"/>
+      <c r="E55" s="249"/>
+      <c r="F55" s="249"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="253" t="e">
+      <c r="A56" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B56" s="253"/>
-      <c r="C56" s="253"/>
-      <c r="D56" s="253" t="e">
+      <c r="B56" s="249"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="249" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="253"/>
-      <c r="F56" s="253"/>
+      <c r="E56" s="249"/>
+      <c r="F56" s="249"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A57" s="253"/>
-      <c r="B57" s="253"/>
-      <c r="C57" s="253"/>
-      <c r="D57" s="253"/>
-      <c r="E57" s="253"/>
-      <c r="F57" s="253"/>
+      <c r="A57" s="249"/>
+      <c r="B57" s="249"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="249"/>
+      <c r="E57" s="249"/>
+      <c r="F57" s="249"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="257" t="e">
+      <c r="A58" s="253" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B58" s="257"/>
-      <c r="C58" s="257"/>
-      <c r="D58" s="257" t="e">
+      <c r="B58" s="253"/>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E58" s="257"/>
-      <c r="F58" s="257"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="253"/>
     </row>
     <row r="59" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A59" s="257"/>
-      <c r="B59" s="257"/>
-      <c r="C59" s="257"/>
-      <c r="D59" s="257"/>
-      <c r="E59" s="257"/>
-      <c r="F59" s="257"/>
+      <c r="A59" s="253"/>
+      <c r="B59" s="253"/>
+      <c r="C59" s="253"/>
+      <c r="D59" s="253"/>
+      <c r="E59" s="253"/>
+      <c r="F59" s="253"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="257" t="e">
+      <c r="A60" s="253" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B60" s="257"/>
-      <c r="C60" s="257"/>
-      <c r="D60" s="257" t="e">
+      <c r="B60" s="253"/>
+      <c r="C60" s="253"/>
+      <c r="D60" s="253" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E60" s="257"/>
-      <c r="F60" s="257"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="253"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A61" s="253"/>
-      <c r="B61" s="253"/>
-      <c r="C61" s="253"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="253"/>
-      <c r="F61" s="253"/>
+      <c r="A61" s="249"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="249"/>
+      <c r="E61" s="249"/>
+      <c r="F61" s="249"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="259"/>
-      <c r="B62" s="259"/>
-      <c r="C62" s="259"/>
-      <c r="D62" s="260" t="e">
+      <c r="A62" s="250"/>
+      <c r="B62" s="250"/>
+      <c r="C62" s="250"/>
+      <c r="D62" s="251" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E62" s="260"/>
-      <c r="F62" s="260"/>
+      <c r="E62" s="251"/>
+      <c r="F62" s="251"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="261"/>
-      <c r="B63" s="261"/>
-      <c r="C63" s="261"/>
-      <c r="D63" s="261"/>
-      <c r="E63" s="261"/>
-      <c r="F63" s="261"/>
+      <c r="A63" s="252"/>
+      <c r="B63" s="252"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="252"/>
+      <c r="E63" s="252"/>
+      <c r="F63" s="252"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="258"/>
-      <c r="B64" s="258"/>
-      <c r="C64" s="258"/>
-      <c r="D64" s="258"/>
-      <c r="E64" s="258"/>
-      <c r="F64" s="258"/>
+      <c r="A64" s="248"/>
+      <c r="B64" s="248"/>
+      <c r="C64" s="248"/>
+      <c r="D64" s="248"/>
+      <c r="E64" s="248"/>
+      <c r="F64" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A46:F46"/>
@@ -14706,12 +14620,26 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:F53"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B43">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
@@ -14766,28 +14694,28 @@
       <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="360" t="str">
+      <c r="A2" s="361" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 4 fevral 2025 y.dan №269-NS-sonli  Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha QOSIMOV BEKZODBEK ORIFJONOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="361"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="360"/>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
+      <c r="A3" s="361"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
       <c r="I3" s="34"/>
     </row>
     <row r="5" spans="1:9">
@@ -14800,146 +14728,146 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="359" t="str">
+      <c r="A7" s="360" t="str">
         <f>"      Men, "&amp;'Общие данные'!B147&amp;" "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, «CLEVER MIKROMOLIYA TASHKILOTI» MChJ Nukus filiali boshligii XOJANIYAZOV B. Z., jismoniy shaxs  QOSIMOV BEKZODBEK ORIFJONOVICH  4 fevral 2025 y.dan №269-NS-sonli Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="359"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="359"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="363" t="s">
+      <c r="A8" s="364" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="363"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
-      <c r="G8" s="363"/>
-      <c r="H8" s="363"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
+      <c r="G8" s="364"/>
+      <c r="H8" s="364"/>
     </row>
     <row r="9" spans="1:9" s="172" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="364" t="s">
+      <c r="A9" s="365" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="365"/>
-      <c r="C9" s="364" t="s">
+      <c r="B9" s="366"/>
+      <c r="C9" s="365" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="365"/>
-      <c r="E9" s="366" t="s">
+      <c r="D9" s="366"/>
+      <c r="E9" s="367" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="366"/>
-      <c r="G9" s="366" t="s">
+      <c r="F9" s="367"/>
+      <c r="G9" s="367" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="366"/>
+      <c r="H9" s="367"/>
     </row>
     <row r="10" spans="1:9" s="170" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="367" t="str">
+      <c r="A10" s="368" t="str">
         <f>'Общие данные'!B125</f>
         <v>MALIBU 2</v>
       </c>
-      <c r="B10" s="367"/>
-      <c r="C10" s="367" t="str">
+      <c r="B10" s="368"/>
+      <c r="C10" s="368" t="str">
         <f>'Общие данные'!B127</f>
         <v>Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410</v>
       </c>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367" t="str">
+      <c r="D10" s="368"/>
+      <c r="E10" s="368" t="str">
         <f>'Общие данные'!B130</f>
         <v>dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367" t="str">
+      <c r="F10" s="368"/>
+      <c r="G10" s="368" t="str">
         <f>'Общие данные'!B133</f>
         <v>rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022</v>
       </c>
-      <c r="H10" s="367"/>
+      <c r="H10" s="368"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="368" t="str">
+      <c r="A11" s="359" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B11" s="368"/>
-      <c r="C11" s="368"/>
-      <c r="D11" s="368"/>
-      <c r="E11" s="368"/>
-      <c r="F11" s="368"/>
-      <c r="G11" s="368"/>
-      <c r="H11" s="368"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="368" t="str">
+      <c r="A12" s="359" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B12" s="368"/>
-      <c r="C12" s="368"/>
-      <c r="D12" s="368"/>
-      <c r="E12" s="368"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="368"/>
-      <c r="H12" s="368"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
+      <c r="H12" s="359"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="368" t="str">
+      <c r="A13" s="359" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B13" s="368"/>
-      <c r="C13" s="368"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
-      <c r="F13" s="368"/>
-      <c r="G13" s="368"/>
-      <c r="H13" s="368"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="359"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="368" t="str">
+      <c r="A14" s="359" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="359"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="361" t="str">
+      <c r="A15" s="362" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E48</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
-      <c r="B15" s="361"/>
-      <c r="C15" s="361"/>
-      <c r="D15" s="361"/>
-      <c r="E15" s="361"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="361"/>
-      <c r="H15" s="361"/>
+      <c r="B15" s="362"/>
+      <c r="C15" s="362"/>
+      <c r="D15" s="362"/>
+      <c r="E15" s="362"/>
+      <c r="F15" s="362"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="362"/>
     </row>
     <row r="17" spans="1:8" s="170" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A17" s="362" t="s">
+      <c r="A17" s="363" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="362"/>
-      <c r="C17" s="362"/>
-      <c r="D17" s="362"/>
-      <c r="E17" s="362"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="362"/>
+      <c r="B17" s="363"/>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
     </row>
     <row r="21" spans="1:8" s="34" customFormat="1"/>
     <row r="22" spans="1:8" s="34" customFormat="1">
@@ -14979,6 +14907,13 @@
     <row r="29" spans="1:8" s="34" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -14989,13 +14924,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15036,28 +14964,28 @@
       <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="360" t="str">
+      <c r="A2" s="361" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 4 fevral 2025 y.dan №269-NS-sonli  Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni tekshirish bo’yicha QOSIMOV BEKZODBEK ORIFJONOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="361"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="360"/>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
+      <c r="A3" s="361"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="361"/>
       <c r="I3" s="34"/>
     </row>
     <row r="5" spans="1:9">
@@ -15070,146 +14998,146 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="359" t="str">
+      <c r="A7" s="360" t="str">
         <f>"      Men, "&amp;'Общие данные'!B147&amp;" "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, «CLEVER MIKROMOLIYA TASHKILOTI» MChJ Nukus filiali boshligii XOJANIYAZOV B. Z., jismoniy shaxs  QOSIMOV BEKZODBEK ORIFJONOVICH  4 fevral 2025 y.dan №269-NS-sonli Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="359"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="359"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="363" t="s">
+      <c r="A8" s="364" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="363"/>
-      <c r="C8" s="363"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="363"/>
-      <c r="F8" s="363"/>
-      <c r="G8" s="363"/>
-      <c r="H8" s="363"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="364"/>
+      <c r="G8" s="364"/>
+      <c r="H8" s="364"/>
     </row>
     <row r="9" spans="1:9" s="172" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="364" t="s">
+      <c r="A9" s="365" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="365"/>
-      <c r="C9" s="364" t="s">
+      <c r="B9" s="366"/>
+      <c r="C9" s="365" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="365"/>
-      <c r="E9" s="366" t="s">
+      <c r="D9" s="366"/>
+      <c r="E9" s="367" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="366"/>
-      <c r="G9" s="366" t="s">
+      <c r="F9" s="367"/>
+      <c r="G9" s="367" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="366"/>
+      <c r="H9" s="367"/>
     </row>
     <row r="10" spans="1:9" s="170" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="367" t="str">
+      <c r="A10" s="368" t="str">
         <f>'Общие данные'!B125</f>
         <v>MALIBU 2</v>
       </c>
-      <c r="B10" s="367"/>
-      <c r="C10" s="367" t="str">
+      <c r="B10" s="368"/>
+      <c r="C10" s="368" t="str">
         <f>'Общие данные'!B127</f>
         <v>Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410</v>
       </c>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367" t="str">
+      <c r="D10" s="368"/>
+      <c r="E10" s="368" t="str">
         <f>'Общие данные'!B130</f>
         <v>dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367" t="str">
+      <c r="F10" s="368"/>
+      <c r="G10" s="368" t="str">
         <f>'Общие данные'!B133</f>
         <v>rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022</v>
       </c>
-      <c r="H10" s="367"/>
+      <c r="H10" s="368"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="368" t="str">
+      <c r="A11" s="359" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B11" s="368"/>
-      <c r="C11" s="368"/>
-      <c r="D11" s="368"/>
-      <c r="E11" s="368"/>
-      <c r="F11" s="368"/>
-      <c r="G11" s="368"/>
-      <c r="H11" s="368"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="368" t="str">
+      <c r="A12" s="359" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG 2398913  20.09.2023 y.</v>
       </c>
-      <c r="B12" s="368"/>
-      <c r="C12" s="368"/>
-      <c r="D12" s="368"/>
-      <c r="E12" s="368"/>
-      <c r="F12" s="368"/>
-      <c r="G12" s="368"/>
-      <c r="H12" s="368"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
+      <c r="H12" s="359"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="368" t="str">
+      <c r="A13" s="359" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: ANDIJON VILOYATI SHAXRIXON TUMANI BARKAMOL AVLOD MFY</v>
       </c>
-      <c r="B13" s="368"/>
-      <c r="C13" s="368"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
-      <c r="F13" s="368"/>
-      <c r="G13" s="368"/>
-      <c r="H13" s="368"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="359"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="368" t="str">
+      <c r="A14" s="359" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 60Q081BB</v>
       </c>
-      <c r="B14" s="368"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="368"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="359"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="361" t="str">
+      <c r="A15" s="362" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E48</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 270 000 000,00 (ikki yuz yetmish million so'm)</v>
       </c>
-      <c r="B15" s="361"/>
-      <c r="C15" s="361"/>
-      <c r="D15" s="361"/>
-      <c r="E15" s="361"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="361"/>
-      <c r="H15" s="361"/>
+      <c r="B15" s="362"/>
+      <c r="C15" s="362"/>
+      <c r="D15" s="362"/>
+      <c r="E15" s="362"/>
+      <c r="F15" s="362"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="362"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A17" s="362" t="s">
+      <c r="A17" s="363" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="362"/>
-      <c r="C17" s="362"/>
-      <c r="D17" s="362"/>
-      <c r="E17" s="362"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="362"/>
+      <c r="B17" s="363"/>
+      <c r="C17" s="363"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="363"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="363"/>
+      <c r="H17" s="363"/>
     </row>
     <row r="21" spans="1:8" s="34" customFormat="1"/>
     <row r="22" spans="1:8" s="34" customFormat="1">
@@ -15249,6 +15177,13 @@
     <row r="29" spans="1:8" s="34" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -15259,13 +15194,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18931,10 +18859,10 @@
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="265" t="s">
+      <c r="E1" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="265"/>
+      <c r="F1" s="273"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="40"/>
@@ -18956,36 +18884,36 @@
       <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="266"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="6" spans="1:8">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="268" t="s">
+      <c r="B6" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="268" t="s">
+      <c r="C6" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="269" t="s">
+      <c r="D6" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="277"/>
     </row>
     <row r="7" spans="1:8" s="19" customFormat="1" ht="30">
-      <c r="A7" s="267"/>
-      <c r="B7" s="268"/>
-      <c r="C7" s="268"/>
+      <c r="A7" s="275"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
       <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
@@ -20224,14 +20152,14 @@
       <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A46" s="239" t="s">
+      <c r="A46" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="239"/>
+      <c r="B46" s="236"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="236"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="236"/>
     </row>
     <row r="47" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="48" spans="1:8">
@@ -20257,198 +20185,184 @@
       <c r="F49" s="272"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="273" t="e">
+      <c r="A50" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="273"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273" t="e">
+      <c r="B50" s="270"/>
+      <c r="C50" s="270"/>
+      <c r="D50" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
+      <c r="E50" s="270"/>
+      <c r="F50" s="270"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A51" s="270" t="e">
+      <c r="A51" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="270"/>
-      <c r="C51" s="270"/>
-      <c r="D51" s="270" t="e">
+      <c r="B51" s="266"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="270"/>
-      <c r="F51" s="270"/>
+      <c r="E51" s="266"/>
+      <c r="F51" s="266"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="270" t="e">
+      <c r="A52" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="270"/>
-      <c r="C52" s="270"/>
-      <c r="D52" s="270" t="str">
+      <c r="B52" s="266"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="266" t="str">
         <f>"паспорт серии "&amp;'Общие данные'!B16&amp;", "&amp;'Общие данные'!B20&amp;""</f>
         <v>паспорт серии AB7685294, ANDIJON VILOYATI SHAXRIXON TUMANI IIB tomonidan 09.09.2017 yilda berilgan</v>
       </c>
-      <c r="E52" s="270"/>
-      <c r="F52" s="270"/>
+      <c r="E52" s="266"/>
+      <c r="F52" s="266"/>
     </row>
     <row r="53" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A53" s="270" t="e">
+      <c r="A53" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B53" s="270"/>
-      <c r="C53" s="270"/>
-      <c r="D53" s="270"/>
-      <c r="E53" s="270"/>
-      <c r="F53" s="270"/>
+      <c r="B53" s="266"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="266"/>
+      <c r="E53" s="266"/>
+      <c r="F53" s="266"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="270" t="e">
+      <c r="A54" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B54" s="270"/>
-      <c r="C54" s="270"/>
-      <c r="D54" s="270" t="e">
+      <c r="B54" s="266"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="270"/>
-      <c r="F54" s="270"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="266"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="270" t="e">
+      <c r="A55" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B55" s="270"/>
-      <c r="C55" s="270"/>
-      <c r="D55" s="270" t="e">
+      <c r="B55" s="266"/>
+      <c r="C55" s="266"/>
+      <c r="D55" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="270"/>
-      <c r="F55" s="270"/>
+      <c r="E55" s="266"/>
+      <c r="F55" s="266"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="270" t="e">
+      <c r="A56" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B56" s="270"/>
-      <c r="C56" s="270"/>
-      <c r="D56" s="270" t="e">
+      <c r="B56" s="266"/>
+      <c r="C56" s="266"/>
+      <c r="D56" s="266" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="270"/>
-      <c r="F56" s="270"/>
+      <c r="E56" s="266"/>
+      <c r="F56" s="266"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A57" s="270"/>
-      <c r="B57" s="270"/>
-      <c r="C57" s="270"/>
-      <c r="D57" s="270"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="270"/>
+      <c r="A57" s="266"/>
+      <c r="B57" s="266"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="266"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="273" t="e">
+      <c r="A58" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B58" s="273"/>
-      <c r="C58" s="273"/>
-      <c r="D58" s="273" t="e">
+      <c r="B58" s="270"/>
+      <c r="C58" s="270"/>
+      <c r="D58" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E58" s="273"/>
-      <c r="F58" s="273"/>
+      <c r="E58" s="270"/>
+      <c r="F58" s="270"/>
     </row>
     <row r="59" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A59" s="273"/>
-      <c r="B59" s="273"/>
-      <c r="C59" s="273"/>
-      <c r="D59" s="273"/>
-      <c r="E59" s="273"/>
-      <c r="F59" s="273"/>
+      <c r="A59" s="270"/>
+      <c r="B59" s="270"/>
+      <c r="C59" s="270"/>
+      <c r="D59" s="270"/>
+      <c r="E59" s="270"/>
+      <c r="F59" s="270"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="273" t="e">
+      <c r="A60" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B60" s="273"/>
-      <c r="C60" s="273"/>
-      <c r="D60" s="273" t="e">
+      <c r="B60" s="270"/>
+      <c r="C60" s="270"/>
+      <c r="D60" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E60" s="273"/>
-      <c r="F60" s="273"/>
+      <c r="E60" s="270"/>
+      <c r="F60" s="270"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A61" s="270"/>
-      <c r="B61" s="270"/>
-      <c r="C61" s="270"/>
-      <c r="D61" s="270"/>
-      <c r="E61" s="270"/>
-      <c r="F61" s="270"/>
+      <c r="A61" s="266"/>
+      <c r="B61" s="266"/>
+      <c r="C61" s="266"/>
+      <c r="D61" s="266"/>
+      <c r="E61" s="266"/>
+      <c r="F61" s="266"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="275"/>
-      <c r="B62" s="275"/>
-      <c r="C62" s="275"/>
-      <c r="D62" s="276"/>
-      <c r="E62" s="276"/>
-      <c r="F62" s="276"/>
+      <c r="A62" s="267"/>
+      <c r="B62" s="267"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="268"/>
+      <c r="E62" s="268"/>
+      <c r="F62" s="268"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="277"/>
-      <c r="B63" s="277"/>
-      <c r="C63" s="277"/>
-      <c r="D63" s="277"/>
-      <c r="E63" s="277"/>
-      <c r="F63" s="277"/>
+      <c r="A63" s="269"/>
+      <c r="B63" s="269"/>
+      <c r="C63" s="269"/>
+      <c r="D63" s="269"/>
+      <c r="E63" s="269"/>
+      <c r="F63" s="269"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="274"/>
-      <c r="B64" s="274"/>
-      <c r="C64" s="274"/>
-      <c r="D64" s="274"/>
-      <c r="E64" s="274"/>
-      <c r="F64" s="274"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="265"/>
+      <c r="C64" s="265"/>
+      <c r="D64" s="265"/>
+      <c r="E64" s="265"/>
+      <c r="F64" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A46:F46"/>
@@ -20463,12 +20377,26 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:F53"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B43">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
@@ -20508,34 +20436,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="279" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
     </row>
     <row r="2" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="280" t="s">
         <v>352</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="279" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="278" t="str">
@@ -20626,14 +20554,14 @@
       <c r="F11" s="278"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="282" t="s">
+      <c r="A12" s="279" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="282"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="282"/>
+      <c r="B12" s="279"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="279"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="278" t="str">
@@ -20691,14 +20619,14 @@
       <c r="F17" s="278"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="282" t="s">
+      <c r="A18" s="279" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="282"/>
-      <c r="C18" s="282"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="282"/>
-      <c r="F18" s="282"/>
+      <c r="B18" s="279"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="278" t="str">
@@ -20734,14 +20662,14 @@
       <c r="F21" s="278"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="282" t="s">
+      <c r="A22" s="279" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="279"/>
-      <c r="C22" s="279"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
+      <c r="B22" s="281"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="281"/>
+      <c r="F22" s="281"/>
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" ht="25.5">
       <c r="A23" s="28" t="s">
@@ -20910,37 +20838,37 @@
       <c r="F33" s="278"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A34" s="279" t="s">
+      <c r="A34" s="281" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="279"/>
-      <c r="C34" s="279"/>
+      <c r="B34" s="281"/>
+      <c r="C34" s="281"/>
       <c r="D34" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="279" t="s">
+      <c r="E34" s="281" t="s">
         <v>255</v>
       </c>
-      <c r="F34" s="279"/>
+      <c r="F34" s="281"/>
     </row>
     <row r="35" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A35" s="280"/>
-      <c r="B35" s="280"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="281" t="str">
+      <c r="A35" s="282"/>
+      <c r="B35" s="282"/>
+      <c r="C35" s="282"/>
+      <c r="D35" s="283" t="str">
         <f>'Общие данные'!B2</f>
         <v>04.02.2025</v>
       </c>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
+      <c r="E35" s="282"/>
+      <c r="F35" s="282"/>
     </row>
     <row r="36" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A36" s="280"/>
-      <c r="B36" s="280"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="281"/>
-      <c r="E36" s="280"/>
-      <c r="F36" s="280"/>
+      <c r="A36" s="282"/>
+      <c r="B36" s="282"/>
+      <c r="C36" s="282"/>
+      <c r="D36" s="283"/>
+      <c r="E36" s="282"/>
+      <c r="F36" s="282"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="278"/>
@@ -21000,13 +20928,24 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A28:F28"/>
@@ -21023,24 +20962,13 @@
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -21068,13 +20996,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
     </row>
     <row r="3" spans="1:5">
       <c r="E3" s="148" t="str">
@@ -21083,194 +21011,194 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="150" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="292" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="289"/>
-      <c r="C5" s="285" t="str">
+      <c r="B5" s="293"/>
+      <c r="C5" s="289" t="str">
         <f>'Общие данные'!B8</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="D5" s="286"/>
-      <c r="E5" s="287"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="291"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="290" t="s">
+      <c r="A7" s="294" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="291"/>
-      <c r="C7" s="292"/>
+      <c r="B7" s="295"/>
+      <c r="C7" s="296"/>
       <c r="D7" s="151" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="151"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="293"/>
-      <c r="B8" s="294"/>
-      <c r="C8" s="295"/>
+      <c r="A8" s="297"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="299"/>
       <c r="D8" s="151" t="s">
         <v>261</v>
       </c>
       <c r="E8" s="151"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="296" t="s">
+      <c r="A9" s="285" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="296"/>
-      <c r="C9" s="296"/>
+      <c r="B9" s="285"/>
+      <c r="C9" s="285"/>
       <c r="D9" s="151" t="s">
         <v>140</v>
       </c>
       <c r="E9" s="151"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="296"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="296"/>
+      <c r="A10" s="285"/>
+      <c r="B10" s="285"/>
+      <c r="C10" s="285"/>
       <c r="D10" s="151" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="151"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="296" t="s">
+      <c r="A11" s="285" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="296"/>
-      <c r="C11" s="296"/>
+      <c r="B11" s="285"/>
+      <c r="C11" s="285"/>
       <c r="D11" s="151" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="151"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="296"/>
-      <c r="B12" s="296"/>
-      <c r="C12" s="296"/>
+      <c r="A12" s="285"/>
+      <c r="B12" s="285"/>
+      <c r="C12" s="285"/>
       <c r="D12" s="151" t="s">
         <v>261</v>
       </c>
       <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A13" s="297" t="s">
+      <c r="A13" s="286" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="297"/>
-      <c r="C13" s="297"/>
-      <c r="D13" s="297"/>
-      <c r="E13" s="297"/>
+      <c r="B13" s="286"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="286"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A14" s="298"/>
-      <c r="B14" s="298"/>
-      <c r="C14" s="298"/>
-      <c r="D14" s="298"/>
-      <c r="E14" s="298"/>
+      <c r="A14" s="287"/>
+      <c r="B14" s="287"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A15" s="298"/>
-      <c r="B15" s="298"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
+      <c r="A15" s="287"/>
+      <c r="B15" s="287"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="298"/>
-      <c r="B16" s="298"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="298"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="287"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A18" s="296" t="s">
+      <c r="A18" s="285" t="s">
         <v>262</v>
       </c>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
       <c r="D18" s="151" t="s">
         <v>140</v>
       </c>
       <c r="E18" s="151"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A19" s="296"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="296"/>
+      <c r="A19" s="285"/>
+      <c r="B19" s="285"/>
+      <c r="C19" s="285"/>
       <c r="D19" s="151" t="s">
         <v>261</v>
       </c>
       <c r="E19" s="151"/>
     </row>
     <row r="20" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A20" s="296" t="s">
+      <c r="A20" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="296"/>
-      <c r="C20" s="296"/>
+      <c r="B20" s="285"/>
+      <c r="C20" s="285"/>
       <c r="D20" s="151" t="s">
         <v>140</v>
       </c>
       <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A21" s="296"/>
-      <c r="B21" s="296"/>
-      <c r="C21" s="296"/>
+      <c r="A21" s="285"/>
+      <c r="B21" s="285"/>
+      <c r="C21" s="285"/>
       <c r="D21" s="151" t="s">
         <v>261</v>
       </c>
       <c r="E21" s="151"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="297" t="s">
+      <c r="A23" s="286" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="297"/>
-      <c r="C23" s="297"/>
-      <c r="D23" s="297"/>
-      <c r="E23" s="297"/>
+      <c r="B23" s="286"/>
+      <c r="C23" s="286"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="286"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A24" s="298"/>
-      <c r="B24" s="298"/>
-      <c r="C24" s="298"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="298"/>
+      <c r="A24" s="287"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A25" s="298"/>
-      <c r="B25" s="298"/>
-      <c r="C25" s="298"/>
-      <c r="D25" s="298"/>
-      <c r="E25" s="298"/>
+      <c r="A25" s="287"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="287"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="298"/>
-      <c r="B26" s="298"/>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
-      <c r="E26" s="298"/>
+      <c r="A26" s="287"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="287"/>
+      <c r="D26" s="287"/>
+      <c r="E26" s="287"/>
     </row>
     <row r="28" spans="1:8" ht="78.75" customHeight="1">
-      <c r="A28" s="299" t="s">
+      <c r="A28" s="284" t="s">
         <v>265</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
+      <c r="B28" s="284"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="284"/>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1">
-      <c r="A30" s="299" t="s">
+      <c r="A30" s="284" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
+      <c r="B30" s="284"/>
+      <c r="C30" s="284"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="284"/>
       <c r="F30" s="152"/>
       <c r="G30" s="152"/>
       <c r="H30" s="152"/>
@@ -21285,6 +21213,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A18:C19"/>
@@ -21293,16 +21231,6 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A9:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21331,11 +21259,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="66" customHeight="1">
-      <c r="C1" s="304" t="str">
+      <c r="C1" s="301" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning"&amp;'Общие данные'!A150&amp;"i"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJningNukus filiali boshligii</v>
       </c>
-      <c r="D1" s="304"/>
+      <c r="D1" s="301"/>
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="16"/>
@@ -21345,309 +21273,309 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="303" t="str">
+      <c r="A4" s="300" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" olish uchun Ariza"</f>
         <v>Mikrokredit olish uchun Ariza</v>
       </c>
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="303"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
+      <c r="A5" s="300"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
     </row>
     <row r="6" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A6" s="300" t="str">
+      <c r="A6" s="302" t="str">
         <f>""&amp;'Общие данные'!B28&amp;".-da yashovchi O‘zbekiston Respublikasi fuqarosi "&amp;'Общие данные'!B8&amp;"dan. "</f>
         <v xml:space="preserve">QORAQALPOGISTON RESPUBLIKASI  NUKUS SHAHARI OZBEKISTON GUZARI 71 4 UY.-da yashovchi O‘zbekiston Respublikasi fuqarosi QOSIMOV BEKZODBEK ORIFJONOVICHdan. </v>
       </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="300" t="str">
+      <c r="A7" s="302" t="str">
         <f>"Tug'ilgan kuni: "&amp;'Общие данные'!B15&amp;""</f>
         <v>Tug'ilgan kuni: 04.12.1981y</v>
       </c>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1">
-      <c r="A8" s="300" t="str">
+      <c r="A8" s="302" t="str">
         <f>"Pasport seriyasi: "&amp;'Общие данные'!B16&amp;" "&amp;'Общие данные'!B20&amp;""</f>
         <v>Pasport seriyasi: AB7685294 ANDIJON VILOYATI SHAXRIXON TUMANI IIB tomonidan 09.09.2017 yilda berilgan</v>
       </c>
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
+      <c r="B8" s="302"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="300" t="str">
+      <c r="A9" s="302" t="str">
         <f>"Asosiy ish joyi : "&amp;'Общие данные'!B58&amp;""</f>
         <v>Asosiy ish joyi : O'Z O'ZINI BAND QILGAN FUQARO №  №0005101243</v>
       </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="302"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="300" t="str">
+      <c r="A10" s="302" t="str">
         <f>"Lavozimi: "&amp;'Общие данные'!B59&amp;""</f>
         <v xml:space="preserve">Lavozimi: Avtomobillarni mayda ta'mirlash </v>
       </c>
-      <c r="B10" s="300"/>
-      <c r="C10" s="300"/>
-      <c r="D10" s="300"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="300" t="str">
+      <c r="A11" s="302" t="str">
         <f>"O’rtacha oylik daromadi: "&amp;FIXED('Общие данные'!B60,2)&amp;" so'm."</f>
         <v>O’rtacha oylik daromadi: 47 000 000,00 so'm.</v>
       </c>
-      <c r="B11" s="300"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="300"/>
+      <c r="B11" s="302"/>
+      <c r="C11" s="302"/>
+      <c r="D11" s="302"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="300" t="str">
+      <c r="A12" s="302" t="str">
         <f>"Menga quyidagi shartlarda "&amp;'Общие данные'!B65&amp;" berishingizni so’rayman:"</f>
         <v>Menga quyidagi shartlarda mikrokredit berishingizni so’rayman:</v>
       </c>
-      <c r="B12" s="300"/>
-      <c r="C12" s="300"/>
-      <c r="D12" s="300"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="302"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="300" t="str">
+      <c r="A13" s="302" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" summasi: "&amp;FIXED('Общие данные'!B75,2)&amp;" ("&amp;'Общие данные'!B76&amp;") so'm."</f>
         <v>Mikrokredit summasi: 180 000 000,00 (yuz sakson million so'm) so'm.</v>
       </c>
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
+      <c r="B13" s="302"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="302"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="300" t="str">
+      <c r="A14" s="302" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" muddati: "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oy."</f>
         <v>Mikrokredit muddati: 12 (o'n ikki) oy.</v>
       </c>
-      <c r="B14" s="300"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="302"/>
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A15" s="300" t="str">
+      <c r="A15" s="302" t="str">
         <f>""&amp;'Общие данные'!C64&amp;"dan foydalanganlik uchun foiz stavkasi: yillik  "&amp;'Общие данные'!B85&amp;"% ("&amp;'Общие данные'!B86&amp;") foiz"</f>
         <v>Mikrokreditdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B15" s="300"/>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
+      <c r="B15" s="302"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="300" t="str">
+      <c r="A16" s="302" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" bo'yicha asosiy qarz va foizlarni to'lash:"</f>
         <v>Mikrokredit bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B16" s="300"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" hidden="1" customHeight="1">
-      <c r="A17" s="302" t="str">
+      <c r="A17" s="303" t="str">
         <f>" - "&amp;'Общие данные'!B65&amp;" shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi"</f>
         <v xml:space="preserve"> - mikrokredit shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="303"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" hidden="1" customHeight="1">
-      <c r="A18" s="302" t="str">
+      <c r="A18" s="303" t="str">
         <f>" - "&amp;'Общие данные'!B65&amp;" shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi"</f>
         <v xml:space="preserve"> - mikrokredit shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="303"/>
     </row>
     <row r="19" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A19" s="302" t="str">
+      <c r="A19" s="303" t="str">
         <f>IF('Общие данные'!B77='Общие данные'!C77,'Кредитная заявка'!A17:D17,IF('Общие данные'!B77='Общие данные'!D77,'Кредитная заявка'!A18:D18))</f>
         <v xml:space="preserve"> - mikrokredit shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B19" s="302"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="302"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="303"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" hidden="1" customHeight="1">
-      <c r="A20" s="300" t="str">
+      <c r="A20" s="302" t="str">
         <f>IF(DAY('Общие данные'!E67)&lt;15,"   ","  Oxirgi yakuniy to'lov "&amp;'Общие данные'!B65&amp;" shartnomasi tuzilgan kundan boshlab oxirgi oyning oxirgi kunida amalga oshiriladi")</f>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="302"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="300" t="str">
+      <c r="A21" s="302" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" ta’minoti::"</f>
         <v>Mikrokredit ta’minoti::</v>
       </c>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
+      <c r="B21" s="302"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="302"/>
     </row>
     <row r="22" spans="1:5" ht="90" customHeight="1">
-      <c r="A22" s="302" t="str">
+      <c r="A22" s="303" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",A26,A23)</f>
         <v xml:space="preserve">  Egalik huquqi QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   MALIBU 2, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, davlat raqam belgisi 60Q081BB, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="B22" s="302"/>
-      <c r="C22" s="302"/>
-      <c r="D22" s="302"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="303"/>
     </row>
     <row r="23" spans="1:5" ht="79.5" hidden="1" customHeight="1">
-      <c r="A23" s="302" t="str">
+      <c r="A23" s="303" t="str">
         <f>IF('Общие данные'!B92='Общие данные'!C92,A25,IF('Общие данные'!B92='Общие данные'!D92,A24,0))</f>
         <v xml:space="preserve"> Egalik huquqi SHOUSMANOVA DAVLATXON XXXga tegishli bo'lgan umumiy maydoni - 72.13 kv.m.  va yashash maydoni - 37.39 kv.m 3 - xonali yakka tartibdagi uy-joy, SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON </v>
       </c>
-      <c r="B23" s="302"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="302"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="303"/>
     </row>
     <row r="24" spans="1:5" ht="96.75" hidden="1" customHeight="1">
-      <c r="A24" s="302" t="str">
+      <c r="A24" s="303" t="str">
         <f>" - Navbatdagi garov (ipoteka) Egalik huquqi asosida  "&amp;'Общие данные'!C117&amp;"ga "&amp;'Общие данные'!C126&amp;", umumiy maydoni - "&amp;'Общие данные'!C130&amp;" va yashash maydoni - "&amp;'Общие данные'!C133&amp;", manzili: "&amp;'Общие данные'!C123&amp;"."</f>
         <v xml:space="preserve"> - Navbatdagi garov (ipoteka) Egalik huquqi asosida  SHOUSMANOVA DAVLATXON XXXga 3 - xonali yakka tartibdagi uy-joy, umumiy maydoni - 72.13 kv.m. va yashash maydoni - 37.39 kv.m, manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON.</v>
       </c>
-      <c r="B24" s="302"/>
-      <c r="C24" s="302"/>
-      <c r="D24" s="302"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
       <c r="E24" s="190"/>
     </row>
     <row r="25" spans="1:5" ht="92.25" hidden="1" customHeight="1">
-      <c r="A25" s="302" t="str">
+      <c r="A25" s="303" t="str">
         <f>" Egalik huquqi "&amp;'Общие данные'!C117&amp;"ga tegishli bo'lgan umumiy maydoni - "&amp;'Общие данные'!C130&amp;"  va yashash maydoni - "&amp;'Общие данные'!C133&amp;" "&amp;'Общие данные'!C126&amp;", "&amp;'Общие данные'!C123&amp;" "</f>
         <v xml:space="preserve"> Egalik huquqi SHOUSMANOVA DAVLATXON XXXga tegishli bo'lgan umumiy maydoni - 72.13 kv.m.  va yashash maydoni - 37.39 kv.m 3 - xonali yakka tartibdagi uy-joy, SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON </v>
       </c>
-      <c r="B25" s="302"/>
-      <c r="C25" s="302"/>
-      <c r="D25" s="302"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
     </row>
     <row r="26" spans="1:5" ht="78" hidden="1" customHeight="1">
-      <c r="A26" s="302" t="str">
+      <c r="A26" s="303" t="str">
         <f>IF('Общие данные'!B92='Общие данные'!C92,'Кредитная заявка'!A28:D28,IF('Общие данные'!B92='Общие данные'!D92,'Кредитная заявка'!A27:D27,0))</f>
         <v xml:space="preserve">  Egalik huquqi QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   MALIBU 2, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, davlat raqam belgisi 60Q081BB, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="B26" s="302"/>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
+      <c r="B26" s="303"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
     </row>
     <row r="27" spans="1:5" ht="93" hidden="1" customHeight="1">
-      <c r="A27" s="302" t="str">
+      <c r="A27" s="303" t="str">
         <f>" Egalik huquqi "&amp;'Общие данные'!B117&amp;"ga tegishli bo'lgan "&amp;'Общие данные'!B125&amp;", "&amp;'Общие данные'!B133&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;", "&amp;'Общие данные'!B127&amp;", "&amp;'Общие данные'!B130&amp;" avtotransport vositasi "</f>
         <v xml:space="preserve"> Egalik huquqi QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli bo'lgan MALIBU 2, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, davlat raqam belgisi 60Q081BB, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ avtotransport vositasi </v>
       </c>
-      <c r="B27" s="302"/>
-      <c r="C27" s="302"/>
-      <c r="D27" s="302"/>
+      <c r="B27" s="303"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
     </row>
     <row r="28" spans="1:5" ht="93.75" hidden="1" customHeight="1">
-      <c r="A28" s="302" t="str">
+      <c r="A28" s="303" t="str">
         <f>"  Egalik huquqi "&amp;'Общие данные'!B117&amp;"ga tegishli bo'lgan garovga olingan avtomobil markasi   "&amp;'Общие данные'!B125&amp;", "&amp;'Общие данные'!B133&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;", "&amp;'Общие данные'!B127&amp;", "&amp;'Общие данные'!B130&amp;""</f>
         <v xml:space="preserve">  Egalik huquqi QOSIMOV BEKZODBEK ORIFJONOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   MALIBU 2, rangi -  QORA CHYORNIY, ishlab chiqarilgan yili - 2022, davlat raqam belgisi 60Q081BB, Kuzov turi YENGIL SEDAN, Kuzov raqami XWBJF69VELA059410, dvigatel raqami 211470021, shassi raqami - RAKAMSIZ</v>
       </c>
-      <c r="B28" s="302"/>
-      <c r="C28" s="302"/>
-      <c r="D28" s="302"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
     </row>
     <row r="29" spans="1:5" ht="10.5" customHeight="1">
-      <c r="A29" s="300"/>
-      <c r="B29" s="300"/>
-      <c r="C29" s="300"/>
-      <c r="D29" s="300"/>
+      <c r="A29" s="302"/>
+      <c r="B29" s="302"/>
+      <c r="C29" s="302"/>
+      <c r="D29" s="302"/>
     </row>
     <row r="30" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A30" s="302" t="str">
+      <c r="A30" s="303" t="str">
         <f>"Mazkur ariza bilan "&amp;'Общие данные'!B147&amp;"ga men va soʻralayotgan "&amp;'Общие данные'!B65&amp;" boʻyicha barcha zarur maʼlumotlarni quyida ko’rsatilgan tashkilotlarga taqdim etish va olishga roziligimni bildirib, ushbu amaliyotlarni o’tkazish uchun huquq beraman:"</f>
         <v>Mazkur ariza bilan «CLEVER MIKROMOLIYA TASHKILOTI» MChJga men va soʻralayotgan mikrokredit boʻyicha barcha zarur maʼlumotlarni quyida ko’rsatilgan tashkilotlarga taqdim etish va olishga roziligimni bildirib, ushbu amaliyotlarni o’tkazish uchun huquq beraman:</v>
       </c>
-      <c r="B30" s="302"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="302"/>
+      <c r="B30" s="303"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="303"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="302" t="s">
+      <c r="A31" s="303" t="s">
         <v>267</v>
       </c>
-      <c r="B31" s="302"/>
-      <c r="C31" s="302"/>
-      <c r="D31" s="302"/>
+      <c r="B31" s="303"/>
+      <c r="C31" s="303"/>
+      <c r="D31" s="303"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="302" t="s">
+      <c r="A32" s="303" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="302"/>
-      <c r="C32" s="302"/>
-      <c r="D32" s="302"/>
+      <c r="B32" s="303"/>
+      <c r="C32" s="303"/>
+      <c r="D32" s="303"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="302" t="s">
+      <c r="A33" s="303" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
-      <c r="D33" s="302"/>
+      <c r="B33" s="303"/>
+      <c r="C33" s="303"/>
+      <c r="D33" s="303"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="300" t="str">
+      <c r="A34" s="302" t="str">
         <f>"Ariza berilgan sana: "&amp;TEXT('Общие данные'!B2,"ДД.ММ.ГГГГ")&amp;"y."</f>
         <v>Ariza berilgan sana: 04.02.2025y.</v>
       </c>
-      <c r="B34" s="300"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="300"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="302"/>
+      <c r="D34" s="302"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="300"/>
-      <c r="B35" s="300"/>
-      <c r="C35" s="300"/>
-      <c r="D35" s="300"/>
+      <c r="A35" s="302"/>
+      <c r="B35" s="302"/>
+      <c r="C35" s="302"/>
+      <c r="D35" s="302"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="300" t="s">
+      <c r="A36" s="302" t="s">
         <v>270</v>
       </c>
-      <c r="B36" s="300"/>
-      <c r="C36" s="300"/>
-      <c r="D36" s="300"/>
+      <c r="B36" s="302"/>
+      <c r="C36" s="302"/>
+      <c r="D36" s="302"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="300"/>
-      <c r="B37" s="300"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="300"/>
+      <c r="A37" s="302"/>
+      <c r="B37" s="302"/>
+      <c r="C37" s="302"/>
+      <c r="D37" s="302"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="300"/>
-      <c r="B38" s="300"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="300"/>
+      <c r="A38" s="302"/>
+      <c r="B38" s="302"/>
+      <c r="C38" s="302"/>
+      <c r="D38" s="302"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="301" t="str">
+      <c r="A39" s="304" t="str">
         <f>'Общие данные'!B5</f>
         <v>QOSIMOV BEKZODBEK ORIFJONOVICH</v>
       </c>
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
+      <c r="B39" s="304"/>
+      <c r="C39" s="304"/>
       <c r="D39" s="14" t="s">
         <v>4</v>
       </c>
@@ -21660,287 +21588,229 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="300"/>
-      <c r="B41" s="300"/>
-      <c r="C41" s="300"/>
-      <c r="D41" s="300"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="302"/>
+      <c r="C41" s="302"/>
+      <c r="D41" s="302"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="300"/>
-      <c r="B42" s="300"/>
-      <c r="C42" s="300"/>
-      <c r="D42" s="300"/>
+      <c r="A42" s="302"/>
+      <c r="B42" s="302"/>
+      <c r="C42" s="302"/>
+      <c r="D42" s="302"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="300"/>
-      <c r="B43" s="300"/>
-      <c r="C43" s="300"/>
-      <c r="D43" s="300"/>
+      <c r="A43" s="302"/>
+      <c r="B43" s="302"/>
+      <c r="C43" s="302"/>
+      <c r="D43" s="302"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="300"/>
-      <c r="B44" s="300"/>
-      <c r="C44" s="300"/>
-      <c r="D44" s="300"/>
+      <c r="A44" s="302"/>
+      <c r="B44" s="302"/>
+      <c r="C44" s="302"/>
+      <c r="D44" s="302"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="300"/>
-      <c r="B45" s="300"/>
-      <c r="C45" s="300"/>
-      <c r="D45" s="300"/>
+      <c r="A45" s="302"/>
+      <c r="B45" s="302"/>
+      <c r="C45" s="302"/>
+      <c r="D45" s="302"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="300"/>
-      <c r="B46" s="300"/>
-      <c r="C46" s="300"/>
-      <c r="D46" s="300"/>
+      <c r="A46" s="302"/>
+      <c r="B46" s="302"/>
+      <c r="C46" s="302"/>
+      <c r="D46" s="302"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="300"/>
-      <c r="B47" s="300"/>
-      <c r="C47" s="300"/>
-      <c r="D47" s="300"/>
+      <c r="A47" s="302"/>
+      <c r="B47" s="302"/>
+      <c r="C47" s="302"/>
+      <c r="D47" s="302"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="300"/>
-      <c r="B48" s="300"/>
-      <c r="C48" s="300"/>
-      <c r="D48" s="300"/>
+      <c r="A48" s="302"/>
+      <c r="B48" s="302"/>
+      <c r="C48" s="302"/>
+      <c r="D48" s="302"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="300"/>
-      <c r="B49" s="300"/>
-      <c r="C49" s="300"/>
-      <c r="D49" s="300"/>
+      <c r="A49" s="302"/>
+      <c r="B49" s="302"/>
+      <c r="C49" s="302"/>
+      <c r="D49" s="302"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="300"/>
-      <c r="B50" s="300"/>
-      <c r="C50" s="300"/>
-      <c r="D50" s="300"/>
+      <c r="A50" s="302"/>
+      <c r="B50" s="302"/>
+      <c r="C50" s="302"/>
+      <c r="D50" s="302"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="300"/>
-      <c r="B51" s="300"/>
-      <c r="C51" s="300"/>
-      <c r="D51" s="300"/>
+      <c r="A51" s="302"/>
+      <c r="B51" s="302"/>
+      <c r="C51" s="302"/>
+      <c r="D51" s="302"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="300"/>
-      <c r="B52" s="300"/>
-      <c r="C52" s="300"/>
-      <c r="D52" s="300"/>
+      <c r="A52" s="302"/>
+      <c r="B52" s="302"/>
+      <c r="C52" s="302"/>
+      <c r="D52" s="302"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="300"/>
-      <c r="B53" s="300"/>
-      <c r="C53" s="300"/>
-      <c r="D53" s="300"/>
+      <c r="A53" s="302"/>
+      <c r="B53" s="302"/>
+      <c r="C53" s="302"/>
+      <c r="D53" s="302"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="300"/>
-      <c r="B54" s="300"/>
-      <c r="C54" s="300"/>
-      <c r="D54" s="300"/>
+      <c r="A54" s="302"/>
+      <c r="B54" s="302"/>
+      <c r="C54" s="302"/>
+      <c r="D54" s="302"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="300"/>
-      <c r="B55" s="300"/>
-      <c r="C55" s="300"/>
-      <c r="D55" s="300"/>
+      <c r="A55" s="302"/>
+      <c r="B55" s="302"/>
+      <c r="C55" s="302"/>
+      <c r="D55" s="302"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="300"/>
-      <c r="B56" s="300"/>
-      <c r="C56" s="300"/>
-      <c r="D56" s="300"/>
+      <c r="A56" s="302"/>
+      <c r="B56" s="302"/>
+      <c r="C56" s="302"/>
+      <c r="D56" s="302"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="300"/>
-      <c r="B57" s="300"/>
-      <c r="C57" s="300"/>
-      <c r="D57" s="300"/>
+      <c r="A57" s="302"/>
+      <c r="B57" s="302"/>
+      <c r="C57" s="302"/>
+      <c r="D57" s="302"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="300"/>
-      <c r="B58" s="300"/>
-      <c r="C58" s="300"/>
-      <c r="D58" s="300"/>
+      <c r="A58" s="302"/>
+      <c r="B58" s="302"/>
+      <c r="C58" s="302"/>
+      <c r="D58" s="302"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="300"/>
-      <c r="B59" s="300"/>
-      <c r="C59" s="300"/>
-      <c r="D59" s="300"/>
+      <c r="A59" s="302"/>
+      <c r="B59" s="302"/>
+      <c r="C59" s="302"/>
+      <c r="D59" s="302"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="300"/>
-      <c r="B60" s="300"/>
-      <c r="C60" s="300"/>
-      <c r="D60" s="300"/>
+      <c r="A60" s="302"/>
+      <c r="B60" s="302"/>
+      <c r="C60" s="302"/>
+      <c r="D60" s="302"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="300"/>
-      <c r="B61" s="300"/>
-      <c r="C61" s="300"/>
-      <c r="D61" s="300"/>
+      <c r="A61" s="302"/>
+      <c r="B61" s="302"/>
+      <c r="C61" s="302"/>
+      <c r="D61" s="302"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="300"/>
-      <c r="B62" s="300"/>
-      <c r="C62" s="300"/>
-      <c r="D62" s="300"/>
+      <c r="A62" s="302"/>
+      <c r="B62" s="302"/>
+      <c r="C62" s="302"/>
+      <c r="D62" s="302"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="300"/>
-      <c r="B63" s="300"/>
-      <c r="C63" s="300"/>
-      <c r="D63" s="300"/>
+      <c r="A63" s="302"/>
+      <c r="B63" s="302"/>
+      <c r="C63" s="302"/>
+      <c r="D63" s="302"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="300"/>
-      <c r="B64" s="300"/>
-      <c r="C64" s="300"/>
-      <c r="D64" s="300"/>
+      <c r="A64" s="302"/>
+      <c r="B64" s="302"/>
+      <c r="C64" s="302"/>
+      <c r="D64" s="302"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="300"/>
-      <c r="B65" s="300"/>
-      <c r="C65" s="300"/>
-      <c r="D65" s="300"/>
+      <c r="A65" s="302"/>
+      <c r="B65" s="302"/>
+      <c r="C65" s="302"/>
+      <c r="D65" s="302"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="300"/>
-      <c r="B66" s="300"/>
-      <c r="C66" s="300"/>
-      <c r="D66" s="300"/>
+      <c r="A66" s="302"/>
+      <c r="B66" s="302"/>
+      <c r="C66" s="302"/>
+      <c r="D66" s="302"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="300"/>
-      <c r="B67" s="300"/>
-      <c r="C67" s="300"/>
-      <c r="D67" s="300"/>
+      <c r="A67" s="302"/>
+      <c r="B67" s="302"/>
+      <c r="C67" s="302"/>
+      <c r="D67" s="302"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="300"/>
-      <c r="B68" s="300"/>
-      <c r="C68" s="300"/>
-      <c r="D68" s="300"/>
+      <c r="A68" s="302"/>
+      <c r="B68" s="302"/>
+      <c r="C68" s="302"/>
+      <c r="D68" s="302"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="300"/>
-      <c r="B69" s="300"/>
-      <c r="C69" s="300"/>
-      <c r="D69" s="300"/>
+      <c r="A69" s="302"/>
+      <c r="B69" s="302"/>
+      <c r="C69" s="302"/>
+      <c r="D69" s="302"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="300"/>
-      <c r="B70" s="300"/>
-      <c r="C70" s="300"/>
-      <c r="D70" s="300"/>
+      <c r="A70" s="302"/>
+      <c r="B70" s="302"/>
+      <c r="C70" s="302"/>
+      <c r="D70" s="302"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="300"/>
-      <c r="B71" s="300"/>
-      <c r="C71" s="300"/>
-      <c r="D71" s="300"/>
+      <c r="A71" s="302"/>
+      <c r="B71" s="302"/>
+      <c r="C71" s="302"/>
+      <c r="D71" s="302"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="300"/>
-      <c r="B72" s="300"/>
-      <c r="C72" s="300"/>
-      <c r="D72" s="300"/>
+      <c r="A72" s="302"/>
+      <c r="B72" s="302"/>
+      <c r="C72" s="302"/>
+      <c r="D72" s="302"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="300"/>
-      <c r="B73" s="300"/>
-      <c r="C73" s="300"/>
-      <c r="D73" s="300"/>
+      <c r="A73" s="302"/>
+      <c r="B73" s="302"/>
+      <c r="C73" s="302"/>
+      <c r="D73" s="302"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="300"/>
-      <c r="B74" s="300"/>
-      <c r="C74" s="300"/>
-      <c r="D74" s="300"/>
+      <c r="A74" s="302"/>
+      <c r="B74" s="302"/>
+      <c r="C74" s="302"/>
+      <c r="D74" s="302"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="300"/>
-      <c r="B75" s="300"/>
-      <c r="C75" s="300"/>
-      <c r="D75" s="300"/>
+      <c r="A75" s="302"/>
+      <c r="B75" s="302"/>
+      <c r="C75" s="302"/>
+      <c r="D75" s="302"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="300"/>
-      <c r="B76" s="300"/>
-      <c r="C76" s="300"/>
-      <c r="D76" s="300"/>
+      <c r="A76" s="302"/>
+      <c r="B76" s="302"/>
+      <c r="C76" s="302"/>
+      <c r="D76" s="302"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="300"/>
-      <c r="B77" s="300"/>
-      <c r="C77" s="300"/>
-      <c r="D77" s="300"/>
+      <c r="A77" s="302"/>
+      <c r="B77" s="302"/>
+      <c r="C77" s="302"/>
+      <c r="D77" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A77:D77"/>
@@ -21957,6 +21827,64 @@
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -21987,11 +21915,11 @@
       <c r="B3" s="305"/>
     </row>
     <row r="4" spans="1:2" ht="92.25" customHeight="1">
-      <c r="A4" s="239" t="str">
+      <c r="A4" s="236" t="str">
         <f>"     Men, fuqaro "&amp;'Общие данные'!B5&amp;" "&amp;'Общие данные'!B149&amp;" bilan "&amp;'Общие данные'!B69&amp;" sanasidagi "&amp;'Общие данные'!B66&amp;"-sonli shartnomaning garov ta'minoti sifatida taqdim etilayotgan mulk "&amp;'Общие данные'!B125&amp;" rusumli avtotransport vositasini qonunga xilof ravishda o‘zlashtirmaslikka, yashirmaslikka, nobud qilmaslikka yoki unga shikast yetkazmaslik majburiyatini olaman."</f>
         <v xml:space="preserve">     Men, fuqaro QOSIMOV BEKZODBEK ORIFJONOVICH «CLEVER MIKROMOLIYA TASHKILOTI» MChJ bilan 4 fevral 2025 y. sanasidagi №269-NS-sonli shartnomaning garov ta'minoti sifatida taqdim etilayotgan mulk MALIBU 2 rusumli avtotransport vositasini qonunga xilof ravishda o‘zlashtirmaslikka, yashirmaslikka, nobud qilmaslikka yoki unga shikast yetkazmaslik majburiyatini olaman.</v>
       </c>
-      <c r="B4" s="239"/>
+      <c r="B4" s="236"/>
     </row>
     <row r="5" spans="1:2" ht="56.25" customHeight="1">
       <c r="A5" s="306" t="s">
